--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$R$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="332">
   <si>
     <t>time for upload</t>
   </si>
@@ -142,9 +142,6 @@
     <t>incoming call handling check</t>
   </si>
   <si>
-    <t xml:space="preserve"> out of networkhandling check</t>
-  </si>
-  <si>
     <t>Category selected</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
   </si>
   <si>
     <t>enable gps on confirmation message and disable for the next step</t>
-  </si>
-  <si>
-    <t>setiings check</t>
   </si>
   <si>
     <t>loading messages</t>
@@ -402,12 +396,6 @@
     <t>check whether place media will be linked to street media</t>
   </si>
   <si>
-    <t>check whether u can set alerts, tags and notes in link monitor</t>
-  </si>
-  <si>
-    <t>check whether it updates tags, alerts and notes in monitor view &gt;inbox correctly</t>
-  </si>
-  <si>
     <t xml:space="preserve">capture image with gps off and mobile data on and wifi off and upload
 </t>
   </si>
@@ -429,10 +417,6 @@
   </si>
   <si>
     <t>logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture few images arnd 25 and let it sit in captured folder, let some images reach the expiring time limit, upload
-Check whether the images which have passed 12 hrs get expired and others are uploaded </t>
   </si>
   <si>
     <t>Select place media
@@ -718,9 +702,6 @@
 2. All the selected medias must get linked to the monitor</t>
   </si>
   <si>
-    <t>Check whther street media monitor can be linked to a place media</t>
-  </si>
-  <si>
     <t>Media not found. Proceed without linking message' message must appear</t>
   </si>
   <si>
@@ -787,12 +768,6 @@
     <t>Respective loading messages must appear</t>
   </si>
   <si>
-    <t>1. Logging in
-2. Identifying medias
-3. Uploading medias
-During the above loading messages, access the wifi, bluetooth, mobile data or any options</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 The loading operation must stop and the user has to retry</t>
   </si>
@@ -802,13 +777,6 @@
   </si>
   <si>
     <t>The last sync with the server data in the dashboard must be updated correctly</t>
-  </si>
-  <si>
-    <t>1. Capture an image and save
-2.  'Identify media to link' manually/auto
-3. The link monitor screen appears displaying the media
-4. Do not check any media (for manually identifying-uncheck the selectedmedia)
-5. Select Upload</t>
   </si>
   <si>
     <t>Uploading large number of monitor's at once</t>
@@ -857,11 +825,6 @@
 4. The barcode scanner opens.
 5. Select the history option in the scanner
 6. Select any value from the history list</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The selected value must be validated
-1. If it is a valid QR code, the linked media must be retirved and displayed in link monitor.
-2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link itnow.....'</t>
   </si>
   <si>
     <t>Scan Qrcode not present in the database</t>
@@ -890,10 +853,6 @@
 8. scan the shared QRcode</t>
   </si>
   <si>
-    <t>1. If it is a valid QR code, the linked media must be retirved and displayed in link monitor.
-2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link itnow.....'</t>
-  </si>
-  <si>
     <t>Password change</t>
   </si>
   <si>
@@ -929,9 +888,6 @@
   </si>
   <si>
     <t>Skip' option in GPS message</t>
-  </si>
-  <si>
-    <t>Wifi enable message</t>
   </si>
   <si>
     <t>Check whether the 'improve accuracy message' is displayed:
@@ -946,12 +902,6 @@
   </si>
   <si>
     <t>With gps disabled in the phone
-1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
-2. Encounter the 'improve accuracy message'
-3. Select 'Enable' option in the message</t>
-  </si>
-  <si>
-    <t>With gps disabled in the phone
 1. Click the capture button, encounter the 'improve the accuracy message'
 2. Select 'Skip' option in the message</t>
   </si>
@@ -975,9 +925,6 @@
   </si>
   <si>
     <t>The choose category menu must appear</t>
-  </si>
-  <si>
-    <t>Skip' option in Wifi message</t>
   </si>
   <si>
     <t>The app must try to retrieve medias, the 'identifying medias loading message must appear.</t>
@@ -1038,9 +985,6 @@
 9. Select any floor and media type</t>
   </si>
   <si>
-    <t>Checkif linked medias are retrieved into link monitor</t>
-  </si>
-  <si>
     <t>1. Select Capture&gt; choose indoor media as category&gt; click image&gt; save
 2. Select 'QR code' option to identify media to link.
 3. Bar scanner will open
@@ -1052,9 +996,6 @@
     <t>Since the scanned QRcode is not assigned to the account, the app must display a message informing that the Qrcode that was scanned was incorrect.</t>
   </si>
   <si>
-    <t>The medias with default value '0' is retrieved on scaning a QRcode of '0'.</t>
-  </si>
-  <si>
     <t>1. Select Capture&gt; choose indoor media category&gt; click image&gt; save
 2. Select 'QR code' option to identify media to link.
 3. Bar scanner will open
@@ -1071,6 +1012,315 @@
   </si>
   <si>
     <t>One QR code must not get assigned to multiple medias</t>
+  </si>
+  <si>
+    <t>linked media must be retrieved and displayed in the link monitor</t>
+  </si>
+  <si>
+    <t>Login as one user&gt; capture&gt; upload&gt; logout
+Login as second user&gt; capture&gt; upload&gt; logout
+In the web application, respective monitor must be uploaded correctly. No Mix up of monitors must happen</t>
+  </si>
+  <si>
+    <t>scenarios for manual, auto and QRcode
+1. WithGPS on and dataconn off
+2. With GPS on and dataconn on
+3. With GPS off + signal
+4, No Signal
+5. NO signal + GPS on</t>
+  </si>
+  <si>
+    <t>Mobile data</t>
+  </si>
+  <si>
+    <t>QR code network scenarios tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal </t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Switched Off</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>QR status</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Switched On</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the mall media type menu and on selection display all available with the account and display it in the Link monitor screen.
+The user must be able to check and uncheck the medias checkboxes
+</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>First try</t>
+  </si>
+  <si>
+    <t>with cache</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Assigned and linked</t>
+  </si>
+  <si>
+    <t>assigned and not linked</t>
+  </si>
+  <si>
+    <t>FIXED ON release version</t>
+  </si>
+  <si>
+    <t>Fixed on release version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First try </t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>not connected</t>
+  </si>
+  <si>
+    <t>first try</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>First Try</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>Airplane mode</t>
+  </si>
+  <si>
+    <t>identify media manually with correct media id - indoor media</t>
+  </si>
+  <si>
+    <t>identify media manually with correct media id - street media</t>
+  </si>
+  <si>
+    <t>Enter other Street media account media ID</t>
+  </si>
+  <si>
+    <t>check on next build able to retrieve abc account media 14710 for info account
+and Unable to connect server msg is displayed</t>
+  </si>
+  <si>
+    <t>with no data connection identify media manually with correct media id for the place media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDOOR: Auto identify media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET: Auto identify media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the media for the location available and on selection an available media and display it in the Link monitor screen.
+The user must be able to check and uncheck the medias checkboxes
+</t>
+  </si>
+  <si>
+    <t>INDOOR: Linking multiple medias</t>
+  </si>
+  <si>
+    <t>Proceed without linking confirmation message must appear</t>
+  </si>
+  <si>
+    <t>STREET: Unchecking medias and uploading</t>
+  </si>
+  <si>
+    <t>INDOOR: Unchecking medias and uploading</t>
+  </si>
+  <si>
+    <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
+Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"unable to connect server , please try again later" message is displayed. </t>
+  </si>
+  <si>
+    <t>With Cache it is uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a valid media Id it should be upload </t>
+  </si>
+  <si>
+    <t>1. Capture images
+2. Identify media to link/ proceed without linking
+3. Let the data connection be disabled
+4. select upload so that the monitor sits in captured folder in dashboard
+5. Do the above steps for 70-100 monitors (will be in captured folder)
+6. With data connection enabled, press upload button on dashboard</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user capture upload, logout
+dashboard count in both the account should not interchange on logging in</t>
+  </si>
+  <si>
+    <t>Login as one user, capture upload, logout
+Login as second user capture upload, logout
+In the app folder in the phone, separate folders for different accounts must be created</t>
+  </si>
+  <si>
+    <t>replace the image in the account folder with another image with same name and check</t>
+  </si>
+  <si>
+    <t>1. Enter invalid Id and valid password
+2. Enter valid ID and invalid password
+3. Enter only characters / numbers
+4. Enter valid ID of one account and valid password of an another account</t>
+  </si>
+  <si>
+    <t>login with buyer account</t>
+  </si>
+  <si>
+    <t>login with seller account</t>
+  </si>
+  <si>
+    <t>Response of the application when capturing a image is slow</t>
+  </si>
+  <si>
+    <t>When we performing option of trying to off wifi , mobile data the medias are loaded</t>
+  </si>
+  <si>
+    <t>The loading messages are appeared</t>
+  </si>
+  <si>
+    <t>In gionee GPAD mobile all the screens are correctly opened when return back</t>
+  </si>
+  <si>
+    <t>Without giving the permission for the snapooh  it accepting to upload.</t>
+  </si>
+  <si>
+    <t>0 Bytes images are creating</t>
+  </si>
+  <si>
+    <t>When we call the screens are not disturbed and uploading also not stopped.</t>
+  </si>
+  <si>
+    <t>pass - media retrieval time is about 20-25 seconds</t>
+  </si>
+  <si>
+    <t>pass - media retrieval time is about 35-40 seconds for indoor media</t>
+  </si>
+  <si>
+    <t>pass - retrieval time is arnd 50-1 min</t>
+  </si>
+  <si>
+    <t>It will load with the cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message displayed as the "This QRCode is not linked to any media. You want to link it now or upload without linking." </t>
+  </si>
+  <si>
+    <t>Wi-Fi enable message</t>
+  </si>
+  <si>
+    <t>Skip' option in Wi-Fi message</t>
+  </si>
+  <si>
+    <t>settings check</t>
+  </si>
+  <si>
+    <t>1. Logging in
+2. Identifying medias
+3. Uploading medias
+During the above loading messages, access the wifi, Bluetooth, mobile data or any options</t>
+  </si>
+  <si>
+    <t>No Internet Detected. Proceed without validating the media  should display.</t>
+  </si>
+  <si>
+    <t>The entered media Id with the Linked monitor should uploaded</t>
+  </si>
+  <si>
+    <t>capture image with gps off and wifi on and upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> out of network handling check</t>
+  </si>
+  <si>
+    <t>try uploading the images in the captured folder, while uploading go to settings,&gt;storage settings&gt;clear the captured data return back to dashboard, the up loader runs for few secs and stops without an error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture few images around 25 and let it sit in captured folder, let some images reach the expiring time limit, upload
+Check whether the images which have passed 12 hrs get expired and others are uploaded </t>
+  </si>
+  <si>
+    <t>Manual selected media is displayed in the linked monitor screen</t>
+  </si>
+  <si>
+    <t>Identify no data connection identify media with correct media ID for the street media</t>
+  </si>
+  <si>
+    <t>STREET: with no data connection auto identify media</t>
+  </si>
+  <si>
+    <t>INDOOR: with no data connection auto identify media</t>
+  </si>
+  <si>
+    <t>1. Capture an image and save
+2.  'Identify media to link' manually/auto
+3. The link monitor screen appears displaying the media
+4. Do not check any media (for manually identifying-uncheck the selected media)
+5. Select Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The selected value must be validated
+1. If it is a valid QR code, the linked media must be retrieved and displayed in link monitor.
+2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link it now.....'</t>
+  </si>
+  <si>
+    <t>1. If it is a valid QR code, the linked media must be retrieved and displayed in link monitor.
+2. If the selected value of qrcode is not linked to any media, then the app must display a message 'The qrcode is not linked to any media. You want to link it now.....'</t>
+  </si>
+  <si>
+    <t>Check if linked medias are retrieved into link monitor</t>
+  </si>
+  <si>
+    <t>The medias with default value '0' is retrieved on scanning a QRcode of '0'.</t>
   </si>
   <si>
     <t>1. Select Capture&gt; choose indoor media as category&gt; click image&gt; save
@@ -1081,286 +1331,62 @@
 7. Select 'upload without linking' option in the message and upload the monitor.
 8. In the web application link a media to the above monitor.
 9. repeat steps 1 and 2
-10. assign same value for Qr code as entered in step 3 and scan</t>
-  </si>
-  <si>
-    <t>linked media must be retrieved and displayed in the link monitor</t>
-  </si>
-  <si>
-    <t>Login as one user&gt; capture&gt; upload&gt; logout
-Login as second user&gt; capture&gt; upload&gt; logout
-In the web application, respective monitor must be uploaded correctly. No Mix up of monitors must happen</t>
-  </si>
-  <si>
-    <t>scenarios for manual, auto and QRcode
-1. WithGPS on and dataconn off
-2. With GPS on and dataconn on
-3. With GPS off + signal
-4, No Signal
-5. NO signal + GPS on</t>
-  </si>
-  <si>
-    <t>Mobile data</t>
-  </si>
-  <si>
-    <t>QR code network scenarios tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal </t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Switched Off</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>QR status</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Switched On</t>
-  </si>
-  <si>
-    <t>Manul</t>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the mall media type menu and on selection display all available with the account and display it in the Link monitor screen.
-The user must be able to check and uncheck the medias checkboxes
-</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>First try</t>
-  </si>
-  <si>
-    <t>with cache</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>2g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>Assigned and linked</t>
-  </si>
-  <si>
-    <t>assigned and not linked</t>
-  </si>
-  <si>
-    <t>FIXED ON release version</t>
-  </si>
-  <si>
-    <t>Fixed on release version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First try </t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>not connected</t>
-  </si>
-  <si>
-    <t>first try</t>
-  </si>
-  <si>
-    <t>unassigned</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>Cache</t>
-  </si>
-  <si>
-    <t>First Try</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>Airplane mode</t>
-  </si>
-  <si>
-    <t>identify media manually with correct media id - indoor media</t>
-  </si>
-  <si>
-    <t>identify media manually with correct media id - street media</t>
-  </si>
-  <si>
-    <t>Enter other Street media account media ID</t>
-  </si>
-  <si>
-    <t>check on next build able to retrieve abc account media 14710 for info account
-and Unable to connect server msg is displayed</t>
-  </si>
-  <si>
-    <t>Identify no data connection identfy media with correct media ID for the street media</t>
-  </si>
-  <si>
-    <t>with no data connection identify media manually with correct media id for the place media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDOOR: Auto identify media </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREET: Auto identify media </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying media message must appear and the app must retrieve the media for the location available and on selection an available media and display it in the Link monitor screen.
-The user must be able to check and uncheck the medias checkboxes
-</t>
-  </si>
-  <si>
-    <t>STREET:with no data connection auto identify media</t>
-  </si>
-  <si>
-    <t>INDOOR:with no data connection auto identify media</t>
-  </si>
-  <si>
-    <t>INDOOR: Linking multiple medias</t>
-  </si>
-  <si>
-    <t>Proceed without linking confirmation message must appear</t>
-  </si>
-  <si>
-    <t>STREET: Unchecking medias and uploading</t>
-  </si>
-  <si>
-    <t>INDOOR: Unchecking medias and uploading</t>
-  </si>
-  <si>
-    <t>Medias which are already linked to a QRcode must not be retrieved to the link monitor screen.
-Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"unable to connect server , please try again later" message is displayed. </t>
-  </si>
-  <si>
-    <t>No Internet Detected. Proceed without validating the media media should display.</t>
-  </si>
-  <si>
-    <t>The enetered media Id with the Linked monitor should uploaded</t>
-  </si>
-  <si>
-    <t>With Cache it is uploaded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a valid media Id it should be upload </t>
-  </si>
-  <si>
-    <t>try uploading the images in the captured folder, while uploading go to settings,&gt;storage settings&gt;clear the captured data return back to dashboard, the uploader runs for few secs and stops without an error message</t>
-  </si>
-  <si>
-    <t>1. Capture images
-2. Identify media to link/ proceed without linking
-3. Let the data connection be disabled
-4. select upload so that the monitor sits in captured folder in dashboard
-5. Do the above steps for 70-100 monitors (will be in captured folder)
-6. With data connection enabled, press upload button on dashboard</t>
-  </si>
-  <si>
-    <t>Login as one user, capture upload, logout
-Login as second user capture upload, logout
-dashboard count in both the account should not interchange on logging in</t>
-  </si>
-  <si>
-    <t>Login as one user, capture upload, logout
-Login as second user capture upload, logout
-In the app folder in the phone, separate folders for different accounts must be created</t>
-  </si>
-  <si>
-    <t>replace the image in the account folder with another image with same name and check</t>
-  </si>
-  <si>
-    <t>1. Enter invalid Id and valid password
-2. Enter valid ID and invalid password
-3. Enter only characters / numbers
-4. Enter valid ID of one account and valid password of an another account</t>
-  </si>
-  <si>
-    <t>login with buyer account</t>
-  </si>
-  <si>
-    <t>login with seller account</t>
-  </si>
-  <si>
-    <t>NOTE: In Previous Version manual  loading of the medias are working.
-Unable to connect server please try again later msg is displayed and if the image cache will be there its loading.</t>
-  </si>
-  <si>
-    <t>Response of the application when capturing a image is slow</t>
-  </si>
-  <si>
-    <t>Manual selected media is diplayed in the linked monitor screen</t>
-  </si>
-  <si>
-    <t>capture imagewith gps off and wifi on and upload</t>
-  </si>
-  <si>
-    <t>When we performing option of trying to off wifi , mobile data the medias are loaded</t>
-  </si>
-  <si>
-    <t>The loading messages are appeared</t>
-  </si>
-  <si>
-    <t>In gionee GPAD mobile all the screens are correctly opened when return back</t>
-  </si>
-  <si>
-    <t>The landscape taken image return to the portrait mode in Image preview screen</t>
-  </si>
-  <si>
-    <t>Without giving the permission for the snapooh  it accepting to upload.</t>
-  </si>
-  <si>
-    <t>0 Bytes images are creating</t>
-  </si>
-  <si>
-    <t>after taking a 2 minitues after it will display a message</t>
-  </si>
-  <si>
-    <t>When we call the screens are not disturbed and uploading also not stopped.</t>
-  </si>
-  <si>
-    <t>pass - media retrieval time is about 20-25 seconds</t>
-  </si>
-  <si>
-    <t>pass - media retrieval time is about 35-40 seconds for indoor media</t>
-  </si>
-  <si>
-    <t>pass - retrieval time is arnd 50-1 min</t>
+10. assign same value for Or code as entered in step 3 and scan</t>
+  </si>
+  <si>
+    <t>Check whether street media monitor can be linked to a place media</t>
+  </si>
+  <si>
+    <t>Improve accuracy message should display with the "Settings"</t>
+  </si>
+  <si>
+    <t>With gps disabled in the phone
+1. Select 'Auto' option while identifying media in the image preview screen (for all categories)
+2. Encounter the 'improve accuracy message'
+3. Select 'settings' option in the message</t>
+  </si>
+  <si>
+    <t>It should not display in the link monitor screen</t>
+  </si>
+  <si>
+    <t>It should not Uncheck in scroll down</t>
+  </si>
+  <si>
+    <t>The count of the monitors in the dashboard should match</t>
+  </si>
+  <si>
+    <t>all linked medias are should display</t>
+  </si>
+  <si>
+    <t>It should not identify the media</t>
+  </si>
+  <si>
+    <t>It displays a deactivated media and linked</t>
+  </si>
+  <si>
+    <t>LiNk monitor : Check whether The alert , tag and notes popup is displayed or not</t>
+  </si>
+  <si>
+    <t>Link Monitor:  Check whether The alert , tag and notes popup is displayed in Offline mode</t>
+  </si>
+  <si>
+    <t>Link Monitor: After Click on Ok in alerts popup it should change the colour of the alerts or tags or notes</t>
+  </si>
+  <si>
+    <t>Alerts , tags and Notes should display click on them respectively.</t>
+  </si>
+  <si>
+    <t>All the alerts , tags and Notes should be display on offline mode(Without Internet)</t>
+  </si>
+  <si>
+    <t>Clicking On Ok in alerts the colour must be change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,7 +1578,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1635,23 +1661,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1751,7 +1812,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1786,7 +1846,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1962,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1970,7 +2029,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -1994,33 +2053,33 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>7</v>
@@ -2032,182 +2091,182 @@
         <v>0</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="75">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2"/>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="R2" s="3"/>
       <c r="T2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
         <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
       </c>
       <c r="R3" s="3"/>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R5" s="3"/>
       <c r="T5" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2218,46 +2277,46 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="R6" s="3"/>
       <c r="T6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2268,47 +2327,47 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="L7" s="3">
         <v>24</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2333,13 +2392,13 @@
       <c r="R8" s="15"/>
       <c r="S8" s="13"/>
       <c r="T8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2350,32 +2409,32 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3">
         <v>10</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="R9" s="3"/>
       <c r="T9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2386,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
@@ -2404,41 +2463,41 @@
         <v>1</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
         <v>40</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2450,29 +2509,29 @@
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>42</v>
-      </c>
       <c r="R11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2483,10 +2542,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2498,32 +2557,32 @@
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
         <v>40</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>42</v>
       </c>
       <c r="R12" s="3"/>
       <c r="T12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="3">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2543,52 +2602,52 @@
       <c r="R13" s="12"/>
       <c r="S13" s="10"/>
       <c r="T13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14"/>
       <c r="H14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
         <v>40</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>42</v>
       </c>
       <c r="R14" s="3"/>
       <c r="T14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2599,23 +2658,23 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2629,7 +2688,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2644,7 +2703,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2659,7 +2718,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2674,499 +2733,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3206,42 +3265,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -3251,15 +3310,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3273,1130 +3332,1098 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="37" customFormat="1" ht="75">
       <c r="A4" s="37">
         <v>2</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G13" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="60">
       <c r="A19" s="16"/>
       <c r="B19" s="36"/>
       <c r="C19" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G19" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90">
       <c r="A20" s="16">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="105">
       <c r="A21" s="16">
         <v>18</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="90">
       <c r="C22" s="17" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>43</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
       <c r="A27" s="16">
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="60">
       <c r="A28" s="16">
         <v>22</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="16">
         <v>23</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="90">
       <c r="A31" s="16">
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>181</v>
+        <v>272</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>181</v>
+        <v>273</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="75">
       <c r="A33" s="16">
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="120">
       <c r="A34" s="16">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="135">
       <c r="A35" s="16">
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="120">
       <c r="A36" s="16">
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="90">
       <c r="A37" s="16">
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="180">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="105">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="120">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="180">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="16">
         <v>30</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75">
       <c r="A44" s="16">
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75">
       <c r="A45" s="16">
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="75">
       <c r="A46" s="16">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75">
       <c r="A47" s="16">
         <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="90">
       <c r="A48" s="16">
         <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="16">
         <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>211</v>
+        <v>200</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="16">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75">
       <c r="A51" s="16">
         <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="60">
+      <c r="A52" s="19">
         <v>39</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="C52" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="75">
+      <c r="A53" s="19">
         <v>40</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
         <v>41</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="16">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="60">
       <c r="A56" s="16">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="75">
       <c r="A57" s="16">
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="16">
         <v>45</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="16">
         <v>46</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>221</v>
+      <c r="C59" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>47</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>16</v>
+      <c r="D60" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="16">
         <v>48</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>43</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G61" s="16"/>
       <c r="H61" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="16">
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>43</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="20" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="60">
       <c r="A63" s="16">
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="G63" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="G63" s="16"/>
       <c r="H63" s="20" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="16">
         <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="16">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="G65" s="16"/>
       <c r="H65" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="16">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="16">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="16">
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="G68" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="16">
         <v>56</v>
       </c>
@@ -4404,16 +4431,16 @@
       <c r="E69" s="2"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="16">
         <v>57</v>
       </c>
-      <c r="D70" s="34" t="s">
-        <v>9</v>
+      <c r="D70" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="105">
       <c r="A71" s="16">
         <v>58</v>
       </c>
@@ -4421,489 +4448,487 @@
         <v>8</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>43</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G71" s="16"/>
       <c r="H71" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="60">
       <c r="A72" s="16">
         <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="16">
         <v>60</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:8" ht="60">
       <c r="A74" s="16">
         <v>61</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="16">
         <v>62</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>83</v>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="G75" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45">
       <c r="A76" s="16">
         <v>63</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="G76" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30">
+      <c r="A77" s="16"/>
+      <c r="D77" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" s="16">
         <v>64</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D78" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" ht="120">
+      <c r="A79" s="16">
+        <v>65</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="16">
+        <v>66</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" ht="60">
+      <c r="A81" s="16">
+        <v>67</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="G81" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60">
+      <c r="A82" s="16">
+        <v>68</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="45" customFormat="1" ht="30">
+      <c r="A83" s="45">
+        <v>69</v>
+      </c>
+      <c r="D83" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
-        <v>65</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
-        <v>66</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
-        <v>67</v>
-      </c>
-      <c r="D80" s="31" t="s">
+    </row>
+    <row r="84" spans="1:8" ht="45">
+      <c r="A84" s="16">
+        <v>70</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="G80" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
-        <v>68</v>
-      </c>
-      <c r="D81" s="31" t="s">
+      <c r="G84" s="16"/>
+      <c r="H84" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="16">
+        <v>71</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="16">
+        <v>72</v>
+      </c>
+      <c r="D86" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="G86" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60">
+      <c r="A87" s="16">
+        <v>73</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="60">
+      <c r="A88" s="16">
+        <v>74</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30">
+      <c r="A89" s="16">
+        <v>75</v>
+      </c>
+      <c r="D89" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
-        <v>69</v>
-      </c>
-      <c r="D82" s="31" t="s">
+      <c r="E89" s="2"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:8" ht="30">
+      <c r="A90" s="16">
+        <v>76</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
-        <v>70</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="F90" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45">
+      <c r="A91" s="16">
+        <v>77</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
-        <v>71</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
-        <v>72</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
-        <v>73</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
-        <v>74</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" s="31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
-        <v>75</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="G88" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
-        <v>76</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
-        <v>77</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="G90" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+      <c r="E91" s="2"/>
+      <c r="F91" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45">
+      <c r="A92" s="16">
         <v>78</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="G91" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
-        <v>79</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="31" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2"/>
+      <c r="F92" s="31" t="s">
+        <v>322</v>
+      </c>
       <c r="G92" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30">
       <c r="A93" s="16">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="60">
+      <c r="A94" s="16">
         <v>80</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
+      <c r="C94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45">
+      <c r="A95" s="16">
         <v>81</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
+      <c r="C95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:8" ht="60">
+      <c r="A96" s="16">
         <v>82</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
+      <c r="D96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:8" ht="60">
+      <c r="A97" s="16">
         <v>83</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="D97" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+      <c r="D97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:8" ht="60">
+      <c r="A98" s="16"/>
+      <c r="D98" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="1:8" ht="90">
+      <c r="A99" s="16">
         <v>84</v>
       </c>
-      <c r="D98" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
+      <c r="D99" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="16">
         <v>85</v>
       </c>
-      <c r="D99" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
+      <c r="D100" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="16">
         <v>86</v>
       </c>
-      <c r="D100" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="16">
+      <c r="D101" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="1:8" ht="30">
+      <c r="A102" s="16">
         <v>87</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="D102" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="16">
         <v>88</v>
       </c>
-      <c r="D102" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G103" s="16"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7">
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7">
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:7">
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:7">
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:7">
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7">
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7">
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7">
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7">
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7">
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:7">
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7">
       <c r="G128" s="16"/>
     </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="16"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G3 G5:G128">
+  <autoFilter ref="A2:I103"/>
+  <conditionalFormatting sqref="G3 G5:G129">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
@@ -4912,7 +4937,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G129">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4923,15 +4948,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4944,1330 +4969,1335 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I3" s="40"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I4" s="40"/>
       <c r="J4" s="28"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="36" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>320</v>
+        <v>69</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>292</v>
       </c>
       <c r="J5" s="28"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="40"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="42"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>321</v>
+        <v>69</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>293</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I9" s="40"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I10" s="40"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="41"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I13" s="40"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="42"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>322</v>
+        <v>69</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>294</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="40"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I17" s="40"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="I18" s="40"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="40"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="28" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1">
       <c r="A21" s="13">
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I21" s="40"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I22" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="28" t="s">
-        <v>267</v>
-      </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="13">
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="13">
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I25" s="40"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I26" s="40"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="13">
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I27" s="40"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="I30" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I30" s="40"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="I31" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I31" s="40"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="13">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I32" s="40"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="42"/>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="13">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I33" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I33" s="40"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="42"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="42"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="13">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="41"/>
-    </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="43"/>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="13">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I36" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="41"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="43"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="I37" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I37" s="40"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="13" customFormat="1">
       <c r="A38" s="13">
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I38" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I38" s="40"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="42"/>
+    <row r="39" spans="1:18" s="13" customFormat="1">
+      <c r="I39" s="40"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="13" customFormat="1">
       <c r="A40" s="13">
         <v>37</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I40" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I40" s="40"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="13" customFormat="1">
       <c r="A41" s="13">
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I41" s="42"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="13" customFormat="1">
       <c r="A42" s="13">
         <v>39</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I42" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I42" s="40"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="13" customFormat="1">
       <c r="A43" s="13">
         <v>40</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="I43" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="I43" s="40"/>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="42"/>
+    <row r="44" spans="1:18" s="13" customFormat="1">
+      <c r="I44" s="40"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="42"/>
+    <row r="45" spans="1:18" s="13" customFormat="1">
+      <c r="I45" s="40"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="42"/>
+    <row r="46" spans="1:18" s="13" customFormat="1">
+      <c r="I46" s="40"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="13" customFormat="1">
       <c r="A47" s="13">
         <v>41</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I47" s="40"/>
       <c r="J47" s="28"/>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="13" customFormat="1">
       <c r="A48" s="13">
         <v>42</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I48" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I48" s="40"/>
       <c r="J48" s="28"/>
     </row>
-    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="13" customFormat="1">
       <c r="A49" s="13">
         <v>43</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I49" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I49" s="40"/>
       <c r="J49" s="28"/>
     </row>
-    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="13" customFormat="1">
       <c r="A50" s="13">
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="I50" s="40"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="13" customFormat="1">
       <c r="A51" s="13">
         <v>45</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I51" s="42"/>
+        <v>256</v>
+      </c>
+      <c r="I51" s="40"/>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="28" customFormat="1">
       <c r="A52" s="28">
         <v>46</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="43"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="43"/>
+        <v>234</v>
+      </c>
+      <c r="I52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" s="28" customFormat="1">
+      <c r="I53" s="41"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="I54" s="41"/>
       <c r="J54" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6278,11 +6308,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$R$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -84,6 +84,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+GPS IS SKIP and continue screen is changed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+GPS IS SKIP and continue screen is changed</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F62" authorId="0">
       <text>
         <r>
@@ -108,12 +156,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Discuss with shwetha</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="333">
   <si>
     <t>time for upload</t>
   </si>
@@ -475,9 +547,6 @@
     <t>check whether deactivated medias get identified</t>
   </si>
   <si>
-    <t>check whether deactivated mall gets identified</t>
-  </si>
-  <si>
     <t>Select QR codes from history of bar code scanner</t>
   </si>
   <si>
@@ -787,9 +856,6 @@
   </si>
   <si>
     <t>enter invalid media ID to try to identify media</t>
-  </si>
-  <si>
-    <t>In the snapooh web application</t>
   </si>
   <si>
     <t>1. Choose place media as the category
@@ -1177,9 +1243,6 @@
 Only unlinked medias (with default QRcode value '0' ) must be retrieved into the link monitor screen</t>
   </si>
   <si>
-    <t xml:space="preserve">"unable to connect server , please try again later" message is displayed. </t>
-  </si>
-  <si>
     <t>With Cache it is uploaded</t>
   </si>
   <si>
@@ -1219,22 +1282,10 @@
     <t>login with seller account</t>
   </si>
   <si>
-    <t>Response of the application when capturing a image is slow</t>
-  </si>
-  <si>
-    <t>When we performing option of trying to off wifi , mobile data the medias are loaded</t>
-  </si>
-  <si>
     <t>The loading messages are appeared</t>
   </si>
   <si>
     <t>In gionee GPAD mobile all the screens are correctly opened when return back</t>
-  </si>
-  <si>
-    <t>Without giving the permission for the snapooh  it accepting to upload.</t>
-  </si>
-  <si>
-    <t>0 Bytes images are creating</t>
   </si>
   <si>
     <t>When we call the screens are not disturbed and uploading also not stopped.</t>
@@ -1380,6 +1431,30 @@
   </si>
   <si>
     <t>Clicking On Ok in alerts the colour must be change</t>
+  </si>
+  <si>
+    <t>The when clicking an auto the medias are displayed.</t>
+  </si>
+  <si>
+    <t>Improve accuracy messgae is displayed(GPS OFF)</t>
+  </si>
+  <si>
+    <t>after deleting the Images in the settings while uploading all monitors are uploaded and displayed in Inbox</t>
+  </si>
+  <si>
+    <t>The response of the app is little past compare to previous version.</t>
+  </si>
+  <si>
+    <t>Medias should retrive when auto and manual click</t>
+  </si>
+  <si>
+    <t>If the image is replace with name and size it should not accept</t>
+  </si>
+  <si>
+    <t>With GpS Off is not able to continue and all other scenarios should be upload.</t>
+  </si>
+  <si>
+    <t>when manual done it is loading and not showing the message "unable to connect to the server must appear"</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,6 +1584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1578,7 +1659,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1656,26 +1737,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1684,21 +1772,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -3311,11 +3385,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I129"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3334,113 +3409,113 @@
   <sheetData>
     <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1">
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" hidden="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="48" customFormat="1" ht="75" hidden="1">
+      <c r="A4" s="48">
+        <v>2</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="37" customFormat="1" ht="75">
-      <c r="A4" s="37">
-        <v>2</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
+      <c r="G4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" hidden="1">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>191</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3448,65 +3523,65 @@
         <v>86</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" hidden="1">
       <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="60" hidden="1">
       <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="45" hidden="1">
       <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="45" hidden="1">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3514,327 +3589,333 @@
         <v>12</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G12" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="75" hidden="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:9" ht="75" hidden="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G14" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90">
+    <row r="15" spans="1:9" ht="90" hidden="1">
       <c r="A15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90">
+    <row r="16" spans="1:9" ht="90" hidden="1">
       <c r="A16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G16" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90">
+    <row r="17" spans="1:9" ht="90" hidden="1">
       <c r="A17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G17" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60">
+    <row r="18" spans="1:9" ht="60" hidden="1">
       <c r="A18" s="16">
         <v>16</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="60" hidden="1">
       <c r="A19" s="16"/>
       <c r="B19" s="36"/>
       <c r="C19" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90">
-      <c r="A20" s="16">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="90">
+      <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C20" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="105" hidden="1">
+      <c r="A21" s="45">
+        <v>18</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="105">
-      <c r="A21" s="16">
-        <v>18</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="F21" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="90">
+      <c r="G21" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="90" hidden="1">
       <c r="C22" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="60" hidden="1">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90">
+    <row r="24" spans="1:9" ht="90" hidden="1">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="87" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87" hidden="1" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" customHeight="1">
+    <row r="26" spans="1:9" ht="87" hidden="1" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="60">
+      <c r="A27" s="19">
+        <v>21</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60">
-      <c r="A27" s="16">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="60">
+      <c r="F27" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" hidden="1">
       <c r="A28" s="16">
         <v>22</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60">
+    <row r="29" spans="1:9" ht="60" hidden="1">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75">
+    <row r="30" spans="1:9" ht="75" hidden="1">
       <c r="A30" s="16">
         <v>23</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="G30" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90">
+    <row r="31" spans="1:9" ht="90" hidden="1">
       <c r="A31" s="16">
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>41</v>
@@ -3842,16 +3923,16 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90">
+    <row r="32" spans="1:9" ht="90" hidden="1">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>41</v>
@@ -3859,7 +3940,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="75">
+    <row r="33" spans="1:8" ht="75" hidden="1">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3867,156 +3948,156 @@
         <v>79</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120">
+    <row r="34" spans="1:8" ht="120" hidden="1">
       <c r="A34" s="16">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="G34" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="135">
+    <row r="35" spans="1:8" ht="135" hidden="1">
       <c r="A35" s="16">
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="120">
+    <row r="36" spans="1:8" ht="120" hidden="1">
       <c r="A36" s="16">
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90">
+    <row r="37" spans="1:8" ht="90" hidden="1">
       <c r="A37" s="16">
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="180">
+    <row r="38" spans="1:8" ht="180" hidden="1">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="105">
+    <row r="39" spans="1:8" ht="105" hidden="1">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="120">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="120" hidden="1">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30">
+    <row r="41" spans="1:8" ht="30" hidden="1">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="180">
+    <row r="42" spans="1:8" ht="180" hidden="1">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -4027,58 +4108,58 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75">
+    <row r="44" spans="1:8" ht="75" hidden="1">
       <c r="A44" s="16">
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75">
+    <row r="45" spans="1:8" ht="75" hidden="1">
       <c r="A45" s="16">
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="75">
+    <row r="46" spans="1:8" ht="75" hidden="1">
       <c r="A46" s="16">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="75">
+    <row r="47" spans="1:8" ht="75" hidden="1">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4086,16 +4167,16 @@
         <v>80</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="90">
+    <row r="48" spans="1:8" ht="90" hidden="1">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4103,15 +4184,17 @@
         <v>13</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" ht="75">
+        <v>166</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" hidden="1">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4119,44 +4202,44 @@
         <v>10</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60">
+    <row r="50" spans="1:9" ht="60" hidden="1">
       <c r="A50" s="16">
         <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75">
+    <row r="51" spans="1:9" ht="75" hidden="1">
       <c r="A51" s="16">
         <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>41</v>
@@ -4166,31 +4249,31 @@
       <c r="A52" s="19">
         <v>39</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>199</v>
+      <c r="C52" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="19" customFormat="1" ht="75">
       <c r="A53" s="19">
         <v>40</v>
       </c>
-      <c r="C53" s="44" t="s">
-        <v>199</v>
+      <c r="C53" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4198,104 +4281,108 @@
         <v>14</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:9" ht="60">
+      <c r="G54" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="60" hidden="1">
       <c r="A55" s="16">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60">
+    <row r="56" spans="1:9" ht="60" hidden="1">
       <c r="A56" s="16">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75">
+    <row r="57" spans="1:9" ht="75" hidden="1">
       <c r="A57" s="16">
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="45" hidden="1">
       <c r="A58" s="16">
         <v>45</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75">
+    <row r="59" spans="1:9" ht="75" hidden="1">
       <c r="A59" s="16">
         <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="16">
         <v>47</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" ht="60">
+      <c r="G60" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="60" hidden="1">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4303,35 +4390,37 @@
         <v>15</v>
       </c>
       <c r="D61" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="H61" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75" hidden="1">
       <c r="A62" s="16">
         <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="60">
+        <v>170</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" hidden="1">
       <c r="A63" s="16">
         <v>50</v>
       </c>
@@ -4342,13 +4431,16 @@
         <v>81</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="F63" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45">
+    <row r="64" spans="1:9" ht="45" hidden="1">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4360,493 +4452,519 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:8" ht="30">
+        <v>294</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" hidden="1">
       <c r="A65" s="16">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="H65" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" hidden="1">
       <c r="A66" s="16">
         <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:8" ht="30">
+        <v>274</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" hidden="1">
       <c r="A67" s="16">
         <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:8">
+        <v>295</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" hidden="1">
       <c r="A68" s="16">
         <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="G68" s="16"/>
+      <c r="F68" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="16">
-        <v>56</v>
-      </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="105" hidden="1">
       <c r="A70" s="16">
-        <v>57</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:8" ht="105">
+        <v>58</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="60" hidden="1">
       <c r="A71" s="16">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="60">
+        <v>171</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" hidden="1">
       <c r="A72" s="16">
-        <v>59</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>172</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="19" customFormat="1" ht="75">
+      <c r="A73" s="19">
+        <v>61</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" hidden="1">
+      <c r="A74" s="16">
+        <v>62</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" hidden="1">
+      <c r="A75" s="16">
+        <v>63</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" hidden="1">
+      <c r="A76" s="16"/>
+      <c r="D76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60">
+      <c r="A77" s="16">
+        <v>64</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" ht="120" hidden="1">
+      <c r="A78" s="16">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G72" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="16">
-        <v>60</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:8" ht="60">
-      <c r="A74" s="16">
-        <v>61</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="16">
-        <v>62</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="45">
-      <c r="A76" s="16">
-        <v>63</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30">
-      <c r="A77" s="16"/>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="60" hidden="1">
+      <c r="A79" s="16">
+        <v>67</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="G79" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="60" hidden="1">
+      <c r="A80" s="16">
+        <v>68</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="41" customFormat="1" ht="30">
+      <c r="A81" s="41">
+        <v>69</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" hidden="1">
+      <c r="A82" s="16">
+        <v>70</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1">
+      <c r="A83" s="16">
+        <v>71</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" hidden="1">
+      <c r="A84" s="16">
+        <v>72</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="60" hidden="1">
+      <c r="A85" s="16">
+        <v>73</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" hidden="1">
+      <c r="A86" s="16">
+        <v>74</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60">
-      <c r="A78" s="16">
-        <v>64</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:8" ht="120">
-      <c r="A79" s="16">
-        <v>65</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="16">
-        <v>66</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:8" ht="60">
-      <c r="A81" s="16">
-        <v>67</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="G81" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="60">
-      <c r="A82" s="16">
-        <v>68</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="45" customFormat="1" ht="30">
-      <c r="A83" s="45">
-        <v>69</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="45">
-      <c r="A84" s="16">
-        <v>70</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="16"/>
-      <c r="H84" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="16">
-        <v>71</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" ht="30">
-      <c r="A86" s="16">
-        <v>72</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="60">
+    </row>
+    <row r="87" spans="1:8" ht="30">
       <c r="A87" s="16">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="60">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:8" ht="30" hidden="1">
       <c r="A88" s="16">
-        <v>74</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="16"/>
-      <c r="H88" s="31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30">
+        <v>76</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45" hidden="1">
       <c r="A89" s="16">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" spans="1:8" ht="30">
+      <c r="F89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" hidden="1">
       <c r="A90" s="16">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" s="31" t="s">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="31" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" hidden="1">
       <c r="A91" s="16">
-        <v>77</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45">
+    <row r="92" spans="1:8" ht="60" hidden="1">
       <c r="A92" s="16">
-        <v>78</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="31" t="s">
-        <v>322</v>
+        <v>80</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="60" hidden="1">
       <c r="A93" s="16">
-        <v>79</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="4" t="s">
-        <v>323</v>
+        <v>82</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="60">
+    <row r="94" spans="1:8" ht="60" hidden="1">
       <c r="A94" s="16">
-        <v>80</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>324</v>
+        <v>83</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="45">
-      <c r="A95" s="16">
-        <v>81</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="1:8" ht="60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60" hidden="1">
+      <c r="A95" s="16"/>
+      <c r="D95" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="90" hidden="1">
       <c r="A96" s="16">
-        <v>82</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:8" ht="60">
+        <v>84</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="16">
-        <v>83</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:8" ht="60">
-      <c r="A98" s="16"/>
-      <c r="D98" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:8" ht="90">
+        <v>85</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" hidden="1">
+      <c r="A98" s="16">
+        <v>86</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" hidden="1">
       <c r="A99" s="16">
-        <v>84</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G99" s="16"/>
-    </row>
-    <row r="100" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="16">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="G100" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="16">
-        <v>86</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>193</v>
-      </c>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:8" ht="30">
-      <c r="A102" s="16">
-        <v>87</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>281</v>
-      </c>
+    <row r="102" spans="1:8">
       <c r="G102" s="16"/>
-      <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="16">
-        <v>88</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H103" s="2"/>
+      <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:8">
       <c r="G104" s="16"/>
@@ -4917,18 +5035,13 @@
     <row r="126" spans="7:7">
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="7:7">
-      <c r="G127" s="16"/>
-    </row>
-    <row r="128" spans="7:7">
-      <c r="G128" s="16"/>
-    </row>
-    <row r="129" spans="7:7">
-      <c r="G129" s="16"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:I103"/>
-  <conditionalFormatting sqref="G3 G5:G129">
+  <autoFilter ref="A2:I100">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="G3:G126">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
@@ -4937,7 +5050,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G126">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4971,30 +5084,30 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>230</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="13" customFormat="1">
@@ -5005,21 +5118,21 @@
         <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:18" s="13" customFormat="1">
@@ -5030,25 +5143,25 @@
         <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="28"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" ht="36" customHeight="1">
       <c r="A5">
@@ -5058,22 +5171,22 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>292</v>
+      <c r="I5" s="38" t="s">
+        <v>285</v>
       </c>
       <c r="J5" s="28"/>
       <c r="N5" s="3"/>
@@ -5086,26 +5199,26 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="38" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
@@ -5115,25 +5228,25 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>293</v>
+      <c r="I7" s="38" t="s">
+        <v>286</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -5143,26 +5256,26 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="38" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="42"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
@@ -5172,23 +5285,23 @@
         <v>35</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="42"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
@@ -5198,24 +5311,24 @@
         <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="13">
@@ -5225,264 +5338,264 @@
         <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="43"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="43"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="43"/>
+      <c r="R13" s="44"/>
     </row>
     <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="42"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="40" t="s">
-        <v>294</v>
+      <c r="I15" s="38" t="s">
+        <v>287</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="42"/>
+      <c r="R15" s="43"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="38" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="42"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="42"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H19" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="R19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H20" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
@@ -5492,478 +5605,478 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I21" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I21" s="38"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13">
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I22" s="38"/>
       <c r="J22" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="R22" s="42"/>
+        <v>249</v>
+      </c>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I23" s="38"/>
       <c r="J23" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="42"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="13">
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>254</v>
-      </c>
       <c r="F24" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I24" s="38"/>
       <c r="J24" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="R24" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="13">
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I25" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I25" s="38"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="42"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I26" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I26" s="38"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="42"/>
+      <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="13">
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I27" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I27" s="38"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="42"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I28" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I28" s="38"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="42"/>
+      <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I29" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I29" s="38"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="42"/>
+      <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I30" s="38"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="42"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I31" s="38"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="42"/>
+      <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="13">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I32" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I32" s="38"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="42"/>
+      <c r="R32" s="43"/>
     </row>
     <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="13">
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="D33" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I33" s="38"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="42"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
         <v>257</v>
       </c>
-      <c r="C34" t="s">
-        <v>259</v>
-      </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I34" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I34" s="38"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="42"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="13">
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I35" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I35" s="38"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="43"/>
+      <c r="R35" s="44"/>
     </row>
     <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="13">
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I36" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I36" s="38"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="43"/>
+      <c r="R36" s="44"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I37" s="38"/>
       <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:18" s="13" customFormat="1">
@@ -5971,31 +6084,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I38" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I38" s="38"/>
       <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:18" s="13" customFormat="1">
-      <c r="I39" s="40"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:18" s="13" customFormat="1">
@@ -6003,27 +6116,27 @@
         <v>37</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I40" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I40" s="38"/>
       <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:18" s="13" customFormat="1">
@@ -6031,27 +6144,27 @@
         <v>38</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I41" s="38"/>
       <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:18" s="13" customFormat="1">
@@ -6059,27 +6172,27 @@
         <v>39</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I42" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I42" s="38"/>
       <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:18" s="13" customFormat="1">
@@ -6087,39 +6200,39 @@
         <v>40</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="I43" s="40"/>
+        <v>246</v>
+      </c>
+      <c r="I43" s="38"/>
       <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:18" s="13" customFormat="1">
-      <c r="I44" s="40"/>
+      <c r="I44" s="38"/>
       <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:18" s="13" customFormat="1">
-      <c r="I45" s="40"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:18" s="13" customFormat="1">
-      <c r="I46" s="40"/>
+      <c r="I46" s="38"/>
       <c r="J46" s="28"/>
     </row>
     <row r="47" spans="1:18" s="13" customFormat="1">
@@ -6127,27 +6240,27 @@
         <v>41</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I47" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I47" s="38"/>
       <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:18" s="13" customFormat="1">
@@ -6155,27 +6268,27 @@
         <v>42</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I48" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I48" s="38"/>
       <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:10" s="13" customFormat="1">
@@ -6183,27 +6296,27 @@
         <v>43</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I49" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I49" s="38"/>
       <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" s="13" customFormat="1">
@@ -6211,27 +6324,27 @@
         <v>44</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="I50" s="38"/>
       <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:10" s="13" customFormat="1">
@@ -6239,27 +6352,27 @@
         <v>45</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="40"/>
+        <v>254</v>
+      </c>
+      <c r="I51" s="38"/>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1">
@@ -6267,37 +6380,32 @@
         <v>46</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="41"/>
+        <v>232</v>
+      </c>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1">
-      <c r="I53" s="41"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="I54" s="41"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6308,6 +6416,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="320">
   <si>
     <t>time for upload</t>
   </si>
@@ -1345,15 +1345,6 @@
   </si>
   <si>
     <t>When we call the screens are not disturbed and uploading also not stopped.</t>
-  </si>
-  <si>
-    <t>pass - media retrieval time is about 20-25 seconds</t>
-  </si>
-  <si>
-    <t>pass - media retrieval time is about 35-40 seconds for indoor media</t>
-  </si>
-  <si>
-    <t>pass - retrieval time is arnd 50-1 min</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1552,7 +1549,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1635,16 +1632,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -4923,12 +4923,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,7 +4938,7 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" customWidth="1"/>
     <col min="14" max="14" width="45.5703125" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" customWidth="1"/>
@@ -4972,7 +4973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -4994,10 +4995,10 @@
       <c r="G3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="42"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="G4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="42"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="28"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
@@ -5047,8 +5048,8 @@
       <c r="G5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>320</v>
+      <c r="I5" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="J5" s="28"/>
       <c r="N5" s="3"/>
@@ -5075,12 +5076,12 @@
       <c r="G6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5104,11 +5105,11 @@
       <c r="G7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="42" t="s">
-        <v>321</v>
+      <c r="I7" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="40"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5132,14 +5133,14 @@
       <c r="G8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5161,11 +5162,11 @@
       <c r="G9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5187,12 +5188,12 @@
       <c r="G10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="41"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5214,11 +5215,11 @@
       <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="41"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5240,12 +5241,12 @@
       <c r="G12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="41"/>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5267,11 +5268,11 @@
       <c r="G13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5290,10 +5291,10 @@
       <c r="G14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="40"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5317,11 +5318,11 @@
       <c r="G15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>322</v>
+      <c r="I15" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="40"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5345,14 +5346,14 @@
       <c r="G16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="40"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5374,11 +5375,11 @@
       <c r="G17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5400,10 +5401,10 @@
       <c r="G18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="42"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="40"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -5427,11 +5428,9 @@
       <c r="H19" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="R19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="28"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -5455,14 +5454,12 @@
       <c r="H20" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="28" t="s">
-        <v>268</v>
-      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="28"/>
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5484,12 +5481,12 @@
       <c r="H21" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5511,11 +5508,11 @@
       <c r="H22" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="40"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -5539,14 +5536,12 @@
       <c r="H23" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="28" t="s">
-        <v>267</v>
-      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="28"/>
       <c r="N23" s="3"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5568,13 +5563,13 @@
       <c r="H24" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5596,10 +5591,10 @@
       <c r="H25" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="40"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5623,11 +5618,11 @@
       <c r="H26" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5649,10 +5644,10 @@
       <c r="H27" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I27" s="42"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="40"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5676,9 +5671,9 @@
       <c r="H28" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="40"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="40"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5702,10 +5697,10 @@
       <c r="H29" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="40"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5732,9 +5727,9 @@
       <c r="H30" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="40"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -5761,12 +5756,12 @@
       <c r="H31" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5791,11 +5786,11 @@
       <c r="H32" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I32" s="42"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="42"/>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5820,10 +5815,10 @@
       <c r="H33" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="42"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="40"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -5850,11 +5845,11 @@
       <c r="H34" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I34" s="42"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="42"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -5879,12 +5874,12 @@
       <c r="H35" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I35" s="42"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="41"/>
-    </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="43"/>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -5909,9 +5904,9 @@
       <c r="H36" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I36" s="42"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="41"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -5938,10 +5933,10 @@
       <c r="H37" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I37" s="42"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -5966,11 +5961,11 @@
       <c r="H38" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I38" s="42"/>
+      <c r="I38" s="40"/>
       <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="42"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5998,7 +5993,7 @@
       <c r="H40" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="42"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6026,7 +6021,7 @@
       <c r="H41" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="42"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6054,7 +6049,7 @@
       <c r="H42" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="42"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6082,19 +6077,19 @@
       <c r="H43" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I43" s="42"/>
+      <c r="I43" s="40"/>
       <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="42"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="28"/>
     </row>
     <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="42"/>
+      <c r="I45" s="40"/>
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="42"/>
+      <c r="I46" s="40"/>
       <c r="J46" s="28"/>
     </row>
     <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6122,7 +6117,7 @@
       <c r="H47" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I47" s="42"/>
+      <c r="I47" s="40"/>
       <c r="J47" s="28"/>
     </row>
     <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6150,7 +6145,7 @@
       <c r="H48" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I48" s="42"/>
+      <c r="I48" s="40"/>
       <c r="J48" s="28"/>
     </row>
     <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6178,7 +6173,7 @@
       <c r="H49" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I49" s="42"/>
+      <c r="I49" s="40"/>
       <c r="J49" s="28"/>
     </row>
     <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6206,7 +6201,7 @@
       <c r="H50" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I50" s="42"/>
+      <c r="I50" s="40"/>
       <c r="J50" s="28"/>
     </row>
     <row r="51" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6234,7 +6229,7 @@
       <c r="H51" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I51" s="42"/>
+      <c r="I51" s="40"/>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6256,17 +6251,23 @@
       <c r="G52" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="I52" s="43"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="43"/>
+      <c r="I53" s="41"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="43"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R38"/>
+  <autoFilter ref="A2:R38">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
@@ -6300,5 +6301,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="334">
   <si>
     <t>time for upload</t>
   </si>
@@ -1455,6 +1455,9 @@
   </si>
   <si>
     <t>when manual done it is loading and not showing the message "unable to connect to the server must appear"</t>
+  </si>
+  <si>
+    <t>Monitor background is running and uploaded means count should display otherwise it stop the uploading or sync.</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1662,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1749,12 +1752,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1766,27 +1763,23 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -3385,12 +3378,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3436,7 +3428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" hidden="1">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3450,24 +3442,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="48" customFormat="1" ht="75" hidden="1">
-      <c r="A4" s="48">
+    <row r="4" spans="1:9" s="46" customFormat="1" ht="75">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" hidden="1">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3485,7 +3477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3500,7 +3492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3515,7 +3507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" hidden="1">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3532,7 +3524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3549,7 +3541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" hidden="1">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3564,7 +3556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" hidden="1">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3581,7 +3573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" hidden="1">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3598,7 +3590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" hidden="1">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3615,7 +3607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" hidden="1">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3632,7 +3624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" hidden="1">
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3649,7 +3641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" hidden="1">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3666,7 +3658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90" hidden="1">
+    <row r="17" spans="1:9" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60" hidden="1">
+    <row r="18" spans="1:9" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3702,7 +3694,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="60" hidden="1">
+    <row r="19" spans="1:9" ht="60">
       <c r="A19" s="16"/>
       <c r="B19" s="36"/>
       <c r="C19" s="2" t="s">
@@ -3735,24 +3727,24 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="105" hidden="1">
-      <c r="A21" s="45">
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="105">
+      <c r="A21" s="43">
         <v>18</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90" hidden="1">
+      <c r="G21" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="90">
       <c r="C22" s="17" t="s">
         <v>301</v>
       </c>
@@ -3769,7 +3761,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60" hidden="1">
+    <row r="23" spans="1:9" ht="60">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -3786,7 +3778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" hidden="1">
+    <row r="24" spans="1:9" ht="90">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
         <v>262</v>
@@ -3804,7 +3796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" hidden="1" customHeight="1">
+    <row r="25" spans="1:9" ht="87" customHeight="1">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3821,7 +3813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" hidden="1" customHeight="1">
+    <row r="26" spans="1:9" ht="87" customHeight="1">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>266</v>
@@ -3853,7 +3845,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" hidden="1">
+    <row r="28" spans="1:9" ht="60">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -3871,7 +3863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" hidden="1">
+    <row r="29" spans="1:9" ht="60">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
         <v>303</v>
@@ -3887,7 +3879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1">
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="16">
         <v>23</v>
       </c>
@@ -3904,7 +3896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90" hidden="1">
+    <row r="31" spans="1:9" ht="90">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3923,7 +3915,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90" hidden="1">
+    <row r="32" spans="1:9" ht="90">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>271</v>
@@ -3940,7 +3932,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="75" hidden="1">
+    <row r="33" spans="1:8" ht="75">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3957,7 +3949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120" hidden="1">
+    <row r="34" spans="1:8" ht="120">
       <c r="A34" s="16">
         <v>26</v>
       </c>
@@ -3974,7 +3966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="135" hidden="1">
+    <row r="35" spans="1:8" ht="135">
       <c r="A35" s="16">
         <v>27</v>
       </c>
@@ -3991,7 +3983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="120" hidden="1">
+    <row r="36" spans="1:8" ht="120">
       <c r="A36" s="16">
         <v>28</v>
       </c>
@@ -4008,7 +4000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90" hidden="1">
+    <row r="37" spans="1:8" ht="90">
       <c r="A37" s="16">
         <v>29</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="180" hidden="1">
+    <row r="38" spans="1:8" ht="180">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
         <v>307</v>
@@ -4040,7 +4032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="105" hidden="1">
+    <row r="39" spans="1:8" ht="105">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
@@ -4056,7 +4048,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="120" hidden="1">
+    <row r="40" spans="1:8" ht="120">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>308</v>
@@ -4071,7 +4063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" hidden="1">
+    <row r="41" spans="1:8" ht="30">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
@@ -4084,7 +4076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="180" hidden="1">
+    <row r="42" spans="1:8" ht="180">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -4097,7 +4089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -4108,7 +4100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75" hidden="1">
+    <row r="44" spans="1:8" ht="75">
       <c r="A44" s="16">
         <v>31</v>
       </c>
@@ -4125,7 +4117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75" hidden="1">
+    <row r="45" spans="1:8" ht="75">
       <c r="A45" s="16">
         <v>32</v>
       </c>
@@ -4142,7 +4134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="75" hidden="1">
+    <row r="46" spans="1:8" ht="75">
       <c r="A46" s="16">
         <v>33</v>
       </c>
@@ -4159,7 +4151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="75" hidden="1">
+    <row r="47" spans="1:8" ht="75">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4176,7 +4168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="90" hidden="1">
+    <row r="48" spans="1:8" ht="90">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4194,7 +4186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" hidden="1">
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4211,7 +4203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60" hidden="1">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="16">
         <v>37</v>
       </c>
@@ -4228,7 +4220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" hidden="1">
+    <row r="51" spans="1:9" ht="75">
       <c r="A51" s="16">
         <v>38</v>
       </c>
@@ -4273,7 +4265,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4285,7 +4277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60" hidden="1">
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="16">
         <v>42</v>
       </c>
@@ -4302,7 +4294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60" hidden="1">
+    <row r="56" spans="1:9" ht="60">
       <c r="A56" s="16">
         <v>43</v>
       </c>
@@ -4319,7 +4311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" hidden="1">
+    <row r="57" spans="1:9" ht="75">
       <c r="A57" s="16">
         <v>44</v>
       </c>
@@ -4336,7 +4328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45" hidden="1">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="16">
         <v>45</v>
       </c>
@@ -4353,7 +4345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" hidden="1">
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="16">
         <v>46</v>
       </c>
@@ -4370,7 +4362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4382,7 +4374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60" hidden="1">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4402,7 +4394,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75" hidden="1">
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="16">
         <v>49</v>
       </c>
@@ -4420,7 +4412,7 @@
       </c>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="30" hidden="1">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="16">
         <v>50</v>
       </c>
@@ -4440,7 +4432,7 @@
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45" hidden="1">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4458,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" hidden="1">
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="16">
         <v>52</v>
       </c>
@@ -4477,7 +4469,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" hidden="1">
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="16">
         <v>53</v>
       </c>
@@ -4495,7 +4487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" hidden="1">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="16">
         <v>54</v>
       </c>
@@ -4513,7 +4505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" hidden="1">
+    <row r="68" spans="1:8" ht="30">
       <c r="A68" s="16">
         <v>55</v>
       </c>
@@ -4537,7 +4529,7 @@
       </c>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8" ht="105" hidden="1">
+    <row r="70" spans="1:8" ht="105">
       <c r="A70" s="16">
         <v>58</v>
       </c>
@@ -4554,7 +4546,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" hidden="1">
+    <row r="71" spans="1:8" ht="60">
       <c r="A71" s="16">
         <v>59</v>
       </c>
@@ -4571,7 +4563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" hidden="1">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="16">
         <v>60</v>
       </c>
@@ -4586,20 +4578,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" ht="75">
-      <c r="A73" s="19">
+    <row r="73" spans="1:8" s="50" customFormat="1" ht="75">
+      <c r="A73" s="50">
         <v>61</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="E73" s="51"/>
+      <c r="F73" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H73" s="51" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" hidden="1">
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="16">
         <v>62</v>
       </c>
@@ -4614,7 +4608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45" hidden="1">
+    <row r="75" spans="1:8" ht="45">
       <c r="A75" s="16">
         <v>63</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" hidden="1">
+    <row r="76" spans="1:8" ht="30">
       <c r="A76" s="16"/>
       <c r="D76" s="2" t="s">
         <v>321</v>
@@ -4649,9 +4643,11 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:8" ht="120" hidden="1">
+      <c r="G77" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="120">
       <c r="A78" s="16">
         <v>65</v>
       </c>
@@ -4669,7 +4665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60" hidden="1">
+    <row r="79" spans="1:8" ht="60">
       <c r="A79" s="16">
         <v>67</v>
       </c>
@@ -4681,7 +4677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="60" hidden="1">
+    <row r="80" spans="1:8" ht="60">
       <c r="A80" s="16">
         <v>68</v>
       </c>
@@ -4704,7 +4700,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" hidden="1">
+    <row r="82" spans="1:8" ht="45">
       <c r="A82" s="16">
         <v>70</v>
       </c>
@@ -4718,7 +4714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="16">
         <v>71</v>
       </c>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="30" hidden="1">
+    <row r="84" spans="1:8" ht="30">
       <c r="A84" s="16">
         <v>72</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="60" hidden="1">
+    <row r="85" spans="1:8" ht="60">
       <c r="A85" s="16">
         <v>73</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45" hidden="1">
+    <row r="86" spans="1:8" ht="45">
       <c r="A86" s="16">
         <v>74</v>
       </c>
@@ -4779,7 +4775,7 @@
       <c r="E87" s="2"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:8" ht="30" hidden="1">
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" s="16">
         <v>76</v>
       </c>
@@ -4796,7 +4792,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" hidden="1">
+    <row r="89" spans="1:8" ht="45">
       <c r="A89" s="16">
         <v>77</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" hidden="1">
+    <row r="90" spans="1:8" ht="45">
       <c r="A90" s="16">
         <v>78</v>
       </c>
@@ -4827,7 +4823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" hidden="1">
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" s="16">
         <v>79</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="60" hidden="1">
+    <row r="92" spans="1:8" ht="60">
       <c r="A92" s="16">
         <v>80</v>
       </c>
@@ -4860,7 +4856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60" hidden="1">
+    <row r="93" spans="1:8" ht="60">
       <c r="A93" s="16">
         <v>82</v>
       </c>
@@ -4871,7 +4867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="60" hidden="1">
+    <row r="94" spans="1:8" ht="60">
       <c r="A94" s="16">
         <v>83</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60" hidden="1">
+    <row r="95" spans="1:8" ht="60">
       <c r="A95" s="16"/>
       <c r="D95" s="31" t="s">
         <v>224</v>
@@ -4891,7 +4887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="90" hidden="1">
+    <row r="96" spans="1:8" ht="90">
       <c r="A96" s="16">
         <v>84</v>
       </c>
@@ -4905,7 +4901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="16">
         <v>85</v>
       </c>
@@ -4916,7 +4912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" hidden="1">
+    <row r="98" spans="1:8" ht="30">
       <c r="A98" s="16">
         <v>86</v>
       </c>
@@ -4930,7 +4926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" hidden="1">
+    <row r="99" spans="1:8" ht="30">
       <c r="A99" s="16">
         <v>87</v>
       </c>
@@ -4945,7 +4941,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="16">
         <v>88</v>
       </c>
@@ -5037,9 +5033,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I100">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
   <conditionalFormatting sqref="G3:G126">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
@@ -5218,7 +5212,7 @@
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
@@ -5246,7 +5240,7 @@
         <v>286</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -5275,7 +5269,7 @@
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
@@ -5301,7 +5295,7 @@
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="43"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
@@ -5328,7 +5322,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="13">
@@ -5354,7 +5348,7 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13">
@@ -5381,7 +5375,7 @@
       <c r="I12" s="38"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="44"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="13">
@@ -5407,7 +5401,7 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="44"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="13">
@@ -5431,7 +5425,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="43"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
@@ -5459,7 +5453,7 @@
         <v>287</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="43"/>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -5488,7 +5482,7 @@
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="43"/>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
@@ -5514,7 +5508,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="43"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
@@ -5541,7 +5535,7 @@
       <c r="I18" s="38"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="43"/>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -5569,7 +5563,7 @@
       <c r="J19" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="43"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
@@ -5625,7 +5619,7 @@
       <c r="I21" s="38"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="43"/>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13">
@@ -5653,7 +5647,7 @@
       <c r="J22" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R22" s="43"/>
+      <c r="R22" s="48"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
@@ -5682,7 +5676,7 @@
         <v>248</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="43"/>
+      <c r="R23" s="48"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="13">
@@ -5710,7 +5704,7 @@
       <c r="J24" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R24" s="43"/>
+      <c r="R24" s="48"/>
     </row>
     <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="13">
@@ -5737,7 +5731,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="43"/>
+      <c r="R25" s="48"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5763,7 +5757,7 @@
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="43"/>
+      <c r="R26" s="48"/>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="13">
@@ -5790,7 +5784,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="43"/>
+      <c r="R27" s="48"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
@@ -5816,7 +5810,7 @@
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="43"/>
+      <c r="R28" s="48"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5843,7 +5837,7 @@
       <c r="I29" s="38"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="43"/>
+      <c r="R29" s="48"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -5872,7 +5866,7 @@
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="43"/>
+      <c r="R30" s="48"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -5902,7 +5896,7 @@
       <c r="I31" s="38"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="43"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="13">
@@ -5931,7 +5925,7 @@
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="43"/>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="13">
@@ -5961,7 +5955,7 @@
       <c r="I33" s="38"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="43"/>
+      <c r="R33" s="48"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -5990,7 +5984,7 @@
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="43"/>
+      <c r="R34" s="48"/>
     </row>
     <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="13">
@@ -6020,7 +6014,7 @@
       <c r="I35" s="38"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="44"/>
+      <c r="R35" s="49"/>
     </row>
     <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="13">
@@ -6049,7 +6043,7 @@
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="44"/>
+      <c r="R36" s="49"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
@@ -6406,6 +6400,11 @@
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6416,11 +6415,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -1636,14 +1636,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3254,9 +3254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,7 +4927,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -5048,7 +5048,7 @@
       <c r="G5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="28"/>
@@ -5076,12 +5076,12 @@
       <c r="G6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5105,11 +5105,11 @@
       <c r="G7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5133,12 +5133,12 @@
       <c r="G8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="42"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="42"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -5191,7 +5191,7 @@
       <c r="I10" s="40"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="43"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -5244,7 +5244,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="43"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="43"/>
+      <c r="R13" s="44"/>
     </row>
     <row r="14" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -5294,7 +5294,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="42"/>
+      <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5318,11 +5318,11 @@
       <c r="G15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="42"/>
+      <c r="R15" s="43"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5346,12 +5346,12 @@
       <c r="G16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="42" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="42"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="42"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -5404,7 +5404,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="42"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="28"/>
-      <c r="R19" s="42"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -5484,7 +5484,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="42"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -5512,7 +5512,7 @@
       <c r="J22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="42"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -5539,7 +5539,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="28"/>
       <c r="N23" s="3"/>
-      <c r="R23" s="42"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -5567,7 +5567,7 @@
       <c r="J24" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="42"/>
+      <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -5594,7 +5594,7 @@
       <c r="I25" s="40"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="42"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="42"/>
+      <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -5647,7 +5647,7 @@
       <c r="I27" s="40"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="42"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="42"/>
+      <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5700,7 +5700,7 @@
       <c r="I29" s="40"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="42"/>
+      <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="I30" s="40"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="42"/>
+      <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -5759,7 +5759,7 @@
       <c r="I31" s="40"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="42"/>
+      <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="I32" s="40"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="42"/>
+      <c r="R32" s="43"/>
     </row>
     <row r="33" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -5818,7 +5818,7 @@
       <c r="I33" s="40"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="42"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="42"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -5877,7 +5877,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="43"/>
+      <c r="R35" s="44"/>
     </row>
     <row r="36" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="43"/>
+      <c r="R36" s="44"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -6269,6 +6269,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6279,11 +6284,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="20 mar15" sheetId="3" r:id="rId3"/>
+    <sheet name="18 may15" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18 may15'!$A$2:$I$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$R$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -1463,8 +1463,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,15 +1763,15 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1879,6 +1879,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1913,6 +1914,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2088,7 +2090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2096,7 +2098,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -2120,7 +2122,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2217,7 +2219,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2256,7 +2258,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75">
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75">
+    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2383,7 +2385,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60">
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60">
+    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2501,7 +2503,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2553,7 +2555,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60">
+    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2598,7 +2600,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2644,7 +2646,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2714,7 +2716,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120">
+    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2741,7 +2743,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2755,7 +2757,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2770,7 +2772,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2785,7 +2787,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2800,499 +2802,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21">
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21">
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21">
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21">
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21">
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21">
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21">
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21">
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21">
+    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21">
+    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21">
+    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21">
+    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21">
+    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21">
+    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21">
+    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21">
+    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21">
+    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21">
+    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21">
+    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3332,20 +3334,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345">
+    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3353,7 +3355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240">
+    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3361,11 +3363,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330">
+    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3377,15 +3379,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3399,7 +3401,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="46" customFormat="1" ht="75">
+    <row r="4" spans="1:9" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>2</v>
       </c>
@@ -3459,7 +3461,7 @@
       </c>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3694,7 +3696,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="36"/>
       <c r="C19" s="2" t="s">
@@ -3710,7 +3712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="90">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>17</v>
       </c>
@@ -3727,7 +3729,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="105">
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>18</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="90">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
         <v>301</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
         <v>262</v>
@@ -3796,7 +3798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" customHeight="1">
+    <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" customHeight="1">
+    <row r="26" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>266</v>
@@ -3828,7 +3830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="60">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>21</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
         <v>303</v>
@@ -3879,7 +3881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>23</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90">
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90">
+    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>271</v>
@@ -3932,7 +3934,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="75">
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>26</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="135">
+    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>27</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="120">
+    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>28</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90">
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>29</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="180">
+    <row r="38" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
         <v>307</v>
@@ -4032,7 +4034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="105">
+    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
@@ -4048,7 +4050,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="120">
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>308</v>
@@ -4063,7 +4065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
@@ -4076,7 +4078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="180">
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -4089,7 +4091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75">
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>31</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>32</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="75">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>33</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="75">
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="90">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>37</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>38</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="60">
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>39</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="75">
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>40</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>42</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60">
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75">
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>45</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75">
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>46</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60">
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75">
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>49</v>
       </c>
@@ -4412,7 +4414,7 @@
       </c>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>50</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45">
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>52</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>53</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>54</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>55</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>57</v>
       </c>
@@ -4529,7 +4531,7 @@
       </c>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8" ht="105">
+    <row r="70" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>58</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60">
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>59</v>
       </c>
@@ -4563,7 +4565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>60</v>
       </c>
@@ -4578,22 +4580,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="50" customFormat="1" ht="75">
-      <c r="A73" s="50">
+    <row r="73" spans="1:8" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="48">
         <v>61</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51" t="s">
+      <c r="E73" s="49"/>
+      <c r="F73" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="H73" s="51" t="s">
+      <c r="H73" s="49" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>62</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>63</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="D76" s="2" t="s">
         <v>321</v>
@@ -4634,7 +4636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>64</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="120">
+    <row r="78" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>65</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60">
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>67</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="60">
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>68</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="41" customFormat="1" ht="30">
+    <row r="81" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>69</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>70</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>71</v>
       </c>
@@ -4726,7 +4728,7 @@
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="30">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>72</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="60">
+    <row r="85" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>73</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>74</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>75</v>
       </c>
@@ -4775,7 +4777,7 @@
       <c r="E87" s="2"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>76</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>77</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>78</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>79</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="60">
+    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>80</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>82</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="60">
+    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>83</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60">
+    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="D95" s="31" t="s">
         <v>224</v>
@@ -4887,7 +4889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="90">
+    <row r="96" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>84</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>85</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30">
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>86</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>87</v>
       </c>
@@ -4941,7 +4943,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>88</v>
       </c>
@@ -4953,88 +4955,86 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="7:7">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="7:7">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="7:7">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="7:7">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="7:7">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="7:7">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="7:7">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="7:7">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="7:7">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="7:7">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="7:7">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="7:7">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="7:7">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="7:7">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I100">
-    <filterColumn colId="6"/>
-  </autoFilter>
+  <autoFilter ref="A2:I100"/>
   <conditionalFormatting sqref="G3:G126">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
@@ -5055,15 +5055,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -5076,12 +5076,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1">
+    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>230</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1">
+    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18" ht="36" customHeight="1">
+    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="J5" s="28"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5212,9 +5212,9 @@
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="48"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6" s="50"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5240,9 +5240,9 @@
         <v>286</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="48"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5269,9 +5269,9 @@
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="48"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1">
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5295,9 +5295,9 @@
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="48"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1">
+      <c r="R9" s="50"/>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5322,9 +5322,9 @@
       <c r="I10" s="38"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="49"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1">
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5348,9 +5348,9 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="49"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1">
+      <c r="R11" s="51"/>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5375,9 +5375,9 @@
       <c r="I12" s="38"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="49"/>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1">
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5401,9 +5401,9 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="49"/>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1">
+      <c r="R13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5425,9 +5425,9 @@
       <c r="I14" s="38"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="48"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="R14" s="50"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5453,9 +5453,9 @@
         <v>287</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="48"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="R15" s="50"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5482,9 +5482,9 @@
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="48"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1">
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5508,9 +5508,9 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="48"/>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1">
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5535,9 +5535,9 @@
       <c r="I18" s="38"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="48"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="50"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5563,9 +5563,9 @@
       <c r="J19" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="48"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1">
+    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5619,9 +5619,9 @@
       <c r="I21" s="38"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="48"/>
-    </row>
-    <row r="22" spans="1:18" s="13" customFormat="1">
+      <c r="R21" s="50"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="J22" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R22" s="48"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="R22" s="50"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5676,9 +5676,9 @@
         <v>248</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="48"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1">
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5704,9 +5704,9 @@
       <c r="J24" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R24" s="48"/>
-    </row>
-    <row r="25" spans="1:18" s="13" customFormat="1">
+      <c r="R24" s="50"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5731,9 +5731,9 @@
       <c r="I25" s="38"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="48"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="R25" s="50"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5757,9 +5757,9 @@
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="48"/>
-    </row>
-    <row r="27" spans="1:18" s="13" customFormat="1">
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5784,9 +5784,9 @@
       <c r="I27" s="38"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="48"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="R27" s="50"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5810,9 +5810,9 @@
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="48"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="R28" s="50"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5837,9 +5837,9 @@
       <c r="I29" s="38"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="48"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="R29" s="50"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5866,9 +5866,9 @@
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="48"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="R30" s="50"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5896,9 +5896,9 @@
       <c r="I31" s="38"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="48"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1">
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5925,9 +5925,9 @@
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="48"/>
-    </row>
-    <row r="33" spans="1:18" s="13" customFormat="1">
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5955,9 +5955,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="48"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5984,9 +5984,9 @@
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="48"/>
-    </row>
-    <row r="35" spans="1:18" s="13" customFormat="1">
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -6014,9 +6014,9 @@
       <c r="I35" s="38"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="49"/>
-    </row>
-    <row r="36" spans="1:18" s="13" customFormat="1">
+      <c r="R35" s="51"/>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6043,9 +6043,9 @@
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="49"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="I37" s="38"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1">
+    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -6101,11 +6101,11 @@
       <c r="I38" s="38"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1">
+    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I39" s="38"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1">
+    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="I40" s="38"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1">
+    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="I41" s="38"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1">
+    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="I42" s="38"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1">
+    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -6217,19 +6217,19 @@
       <c r="I43" s="38"/>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1">
+    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I44" s="38"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1">
+    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I45" s="38"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:18" s="13" customFormat="1">
+    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I46" s="38"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1">
+    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>41</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="I47" s="38"/>
       <c r="J47" s="28"/>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1">
+    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>42</v>
       </c>
@@ -6285,7 +6285,7 @@
       <c r="I48" s="38"/>
       <c r="J48" s="28"/>
     </row>
-    <row r="49" spans="1:10" s="13" customFormat="1">
+    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>43</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="I49" s="38"/>
       <c r="J49" s="28"/>
     </row>
-    <row r="50" spans="1:10" s="13" customFormat="1">
+    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>44</v>
       </c>
@@ -6341,7 +6341,7 @@
       <c r="I50" s="38"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="1:10" s="13" customFormat="1">
+    <row r="51" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>45</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="I51" s="38"/>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" s="28" customFormat="1">
+    <row r="52" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>46</v>
       </c>
@@ -6390,21 +6390,16 @@
       </c>
       <c r="I52" s="39"/>
     </row>
-    <row r="53" spans="1:10" s="28" customFormat="1">
+    <row r="53" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I53" s="39"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I54" s="39"/>
       <c r="J54" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6415,6 +6410,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -5056,10 +5056,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -5104,7 +5105,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5129,7 +5130,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5271,7 +5272,7 @@
       <c r="N8" s="3"/>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5297,7 +5298,7 @@
       <c r="J9" s="28"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5324,7 +5325,7 @@
       <c r="N10" s="15"/>
       <c r="R10" s="51"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="J11" s="28"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="N12" s="15"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5403,7 +5404,7 @@
       <c r="J13" s="28"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="N16" s="3"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5510,7 +5511,7 @@
       <c r="J17" s="28"/>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5594,7 +5595,7 @@
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="N21" s="15"/>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5678,7 +5679,7 @@
       <c r="N23" s="3"/>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5759,7 +5760,7 @@
       <c r="J26" s="28"/>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5898,7 +5899,7 @@
       <c r="N31" s="3"/>
       <c r="R31" s="50"/>
     </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5927,7 +5928,7 @@
       <c r="J32" s="28"/>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5986,7 +5987,7 @@
       <c r="J34" s="28"/>
       <c r="R34" s="50"/>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -6016,7 +6017,7 @@
       <c r="N35" s="15"/>
       <c r="R35" s="51"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6073,7 +6074,7 @@
       <c r="I37" s="38"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -6398,8 +6399,19 @@
       <c r="J54" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R38"/>
+  <autoFilter ref="A2:R38">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6410,11 +6422,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="363">
   <si>
     <t>time for upload</t>
   </si>
@@ -1458,6 +1458,140 @@
   </si>
   <si>
     <t>Monitor background is running and uploaded means count should display otherwise it stop the uploading or sync.</t>
+  </si>
+  <si>
+    <t>1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto.</t>
+  </si>
+  <si>
+    <t>It should display a POI for the selected location if it is available</t>
+  </si>
+  <si>
+    <t>Check if POI is available</t>
+  </si>
+  <si>
+    <t>1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto.
+4. Select POI and clickon Upload button.</t>
+  </si>
+  <si>
+    <t>The selected POI must be upload</t>
+  </si>
+  <si>
+    <t>Check the POI uploading or not</t>
+  </si>
+  <si>
+    <t>1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto.
+4. Select POI and click on change button.</t>
+  </si>
+  <si>
+    <t>Choose point of interest popup should display</t>
+  </si>
+  <si>
+    <t>1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto.
+4. Select POI and click on remove button.</t>
+  </si>
+  <si>
+    <t>The selected POI Must be removed from the Link Monitor screen</t>
+  </si>
+  <si>
+    <t>Check the functionality of remove button</t>
+  </si>
+  <si>
+    <t>Check the functionality of the change button.</t>
+  </si>
+  <si>
+    <t>Check the POI if it is not available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto.
+</t>
+  </si>
+  <si>
+    <t>s "POI not available, Continue without linking "  message should display in the POI popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(POI).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+4. Click ok in the popup.
+5. select upload button  and click OK on proceed without linking
+</t>
+  </si>
+  <si>
+    <t>POI Should upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+4. Choose place category.
+5. select any of the land mark or place from category.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+</t>
+  </si>
+  <si>
+    <t>Choose place category popup should display.</t>
+  </si>
+  <si>
+    <t>list of landmarks should display in the popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+4. Choose place category.
+5. select any of the land mark or place from category.
+6.click on upload button in the link monitor
+</t>
+  </si>
+  <si>
+    <t>It should upload a Land mark or place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+4. Choose place category.
+5. select any of the land mark or place from category.
+6.click on change button in the link monitor .
+</t>
+  </si>
+  <si>
+    <t>It should display a list of places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto..
+4. Choose place category.
+5. select any of the land mark or place from category.
+6.click on remove button in the link monitor .
+</t>
+  </si>
+  <si>
+    <t>It should remove the place from the link monitor screen.</t>
+  </si>
+  <si>
+    <t>Check the fuctionality of the upload button</t>
+  </si>
+  <si>
+    <t>1. Go to Capture&gt;Choose category(Land mark or place).
+2. Capture a Image .
+3. Select identify media to link and click on auto.</t>
   </si>
 </sst>
 </file>
@@ -1763,15 +1897,15 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3336,7 +3470,7 @@
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3378,11 +3512,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I126"/>
+  <dimension ref="A2:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4578,18 +4712,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="50" customFormat="1" ht="75">
-      <c r="A73" s="50">
+    <row r="73" spans="1:8" s="48" customFormat="1" ht="75">
+      <c r="A73" s="48">
         <v>61</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51" t="s">
+      <c r="E73" s="49"/>
+      <c r="F73" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="H73" s="51" t="s">
+      <c r="H73" s="49" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4953,40 +5087,129 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8">
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" spans="1:8">
+    <row r="101" spans="1:8" ht="45">
+      <c r="C101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="60">
+      <c r="C102" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="60">
+      <c r="C103" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="60">
+      <c r="C104" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="60">
+      <c r="C105" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="90">
+      <c r="C106" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="75">
+      <c r="D107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="90">
+      <c r="D108" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="105">
+      <c r="D109" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="105">
+      <c r="D110" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="105">
+      <c r="D111" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" ht="45">
+      <c r="D112" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="7:7">
@@ -5027,15 +5250,12 @@
     </row>
     <row r="125" spans="7:7">
       <c r="G125" s="16"/>
-    </row>
-    <row r="126" spans="7:7">
-      <c r="G126" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I100">
     <filterColumn colId="6"/>
   </autoFilter>
-  <conditionalFormatting sqref="G3:G126">
+  <conditionalFormatting sqref="G3:G125">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
@@ -5044,7 +5264,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G125">
       <formula1>"Pass, Fail, untestable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5060,7 +5280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5212,7 +5432,7 @@
       </c>
       <c r="J6" s="28"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
@@ -5240,7 +5460,7 @@
         <v>286</v>
       </c>
       <c r="J7" s="28"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -5269,7 +5489,7 @@
       </c>
       <c r="J8" s="28"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="48"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
@@ -5295,7 +5515,7 @@
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="28"/>
-      <c r="R9" s="48"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
@@ -5322,7 +5542,7 @@
       <c r="I10" s="38"/>
       <c r="J10" s="28"/>
       <c r="N10" s="15"/>
-      <c r="R10" s="49"/>
+      <c r="R10" s="51"/>
     </row>
     <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="13">
@@ -5348,7 +5568,7 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="28"/>
-      <c r="R11" s="49"/>
+      <c r="R11" s="51"/>
     </row>
     <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13">
@@ -5375,7 +5595,7 @@
       <c r="I12" s="38"/>
       <c r="J12" s="28"/>
       <c r="N12" s="15"/>
-      <c r="R12" s="49"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="13">
@@ -5401,7 +5621,7 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="28"/>
-      <c r="R13" s="49"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="13">
@@ -5425,7 +5645,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="28"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="48"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
@@ -5453,7 +5673,7 @@
         <v>287</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="R15" s="48"/>
+      <c r="R15" s="50"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -5482,7 +5702,7 @@
       </c>
       <c r="J16" s="28"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="48"/>
+      <c r="R16" s="50"/>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
@@ -5508,7 +5728,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="28"/>
-      <c r="R17" s="48"/>
+      <c r="R17" s="50"/>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
@@ -5535,7 +5755,7 @@
       <c r="I18" s="38"/>
       <c r="J18" s="28"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="48"/>
+      <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -5563,7 +5783,7 @@
       <c r="J19" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R19" s="48"/>
+      <c r="R19" s="50"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
@@ -5619,7 +5839,7 @@
       <c r="I21" s="38"/>
       <c r="J21" s="28"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="48"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13">
@@ -5647,7 +5867,7 @@
       <c r="J22" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="R22" s="48"/>
+      <c r="R22" s="50"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
@@ -5676,7 +5896,7 @@
         <v>248</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="48"/>
+      <c r="R23" s="50"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="13">
@@ -5704,7 +5924,7 @@
       <c r="J24" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="R24" s="48"/>
+      <c r="R24" s="50"/>
     </row>
     <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="13">
@@ -5731,7 +5951,7 @@
       <c r="I25" s="38"/>
       <c r="J25" s="28"/>
       <c r="N25" s="15"/>
-      <c r="R25" s="48"/>
+      <c r="R25" s="50"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5757,7 +5977,7 @@
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="28"/>
-      <c r="R26" s="48"/>
+      <c r="R26" s="50"/>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="13">
@@ -5784,7 +6004,7 @@
       <c r="I27" s="38"/>
       <c r="J27" s="28"/>
       <c r="N27" s="15"/>
-      <c r="R27" s="48"/>
+      <c r="R27" s="50"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
@@ -5810,7 +6030,7 @@
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="28"/>
-      <c r="R28" s="48"/>
+      <c r="R28" s="50"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5837,7 +6057,7 @@
       <c r="I29" s="38"/>
       <c r="J29" s="28"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="48"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -5866,7 +6086,7 @@
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="28"/>
-      <c r="R30" s="48"/>
+      <c r="R30" s="50"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -5896,7 +6116,7 @@
       <c r="I31" s="38"/>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="48"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="13">
@@ -5925,7 +6145,7 @@
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="28"/>
-      <c r="R32" s="48"/>
+      <c r="R32" s="50"/>
     </row>
     <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="13">
@@ -5955,7 +6175,7 @@
       <c r="I33" s="38"/>
       <c r="J33" s="28"/>
       <c r="N33" s="15"/>
-      <c r="R33" s="48"/>
+      <c r="R33" s="50"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -5984,7 +6204,7 @@
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="28"/>
-      <c r="R34" s="48"/>
+      <c r="R34" s="50"/>
     </row>
     <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="13">
@@ -6014,7 +6234,7 @@
       <c r="I35" s="38"/>
       <c r="J35" s="28"/>
       <c r="N35" s="15"/>
-      <c r="R35" s="49"/>
+      <c r="R35" s="51"/>
     </row>
     <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="13">
@@ -6043,7 +6263,7 @@
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="28"/>
-      <c r="R36" s="49"/>
+      <c r="R36" s="51"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
@@ -6400,11 +6620,6 @@
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6415,6 +6630,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="335">
   <si>
     <t>time for upload</t>
   </si>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t>Monitor background is running and uploaded means count should display otherwise it stop the uploading or sync.</t>
+  </si>
+  <si>
+    <t>incorrect message appears on scanning unassignes qrcode</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3386,7 @@
   <dimension ref="A2:I126"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -5056,12 +5059,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,7 +5107,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5130,7 +5132,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5272,7 +5274,7 @@
       <c r="N8" s="3"/>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5298,7 +5300,7 @@
       <c r="J9" s="28"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5325,7 +5327,7 @@
       <c r="N10" s="15"/>
       <c r="R10" s="51"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5351,7 +5353,7 @@
       <c r="J11" s="28"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5378,7 +5380,7 @@
       <c r="N12" s="15"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5404,7 +5406,7 @@
       <c r="J13" s="28"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5485,7 +5487,7 @@
       <c r="N16" s="3"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="J17" s="28"/>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5560,7 +5562,9 @@
       <c r="H19" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="J19" s="28" t="s">
         <v>248</v>
       </c>
@@ -5588,14 +5592,16 @@
       <c r="H20" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="J20" s="28" t="s">
         <v>249</v>
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5622,7 +5628,7 @@
       <c r="N21" s="15"/>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5679,7 +5685,7 @@
       <c r="N23" s="3"/>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5707,7 +5713,7 @@
       </c>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5760,7 +5766,7 @@
       <c r="J26" s="28"/>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5865,7 +5871,9 @@
       <c r="H30" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="I30" s="38"/>
+      <c r="I30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="J30" s="28"/>
       <c r="R30" s="50"/>
     </row>
@@ -5894,12 +5902,14 @@
       <c r="H31" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="I31" s="38"/>
+      <c r="I31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="J31" s="28"/>
       <c r="N31" s="3"/>
       <c r="R31" s="50"/>
     </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5928,7 +5938,7 @@
       <c r="J32" s="28"/>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5983,11 +5993,13 @@
       <c r="H34" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="I34" s="38"/>
+      <c r="I34" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="J34" s="28"/>
       <c r="R34" s="50"/>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -6017,7 +6029,7 @@
       <c r="N35" s="15"/>
       <c r="R35" s="51"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6071,10 +6083,14 @@
       <c r="H37" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -6399,19 +6415,8 @@
       <c r="J54" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R38">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="ON"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6422,6 +6427,11 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">

--- a/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-build 10 18may2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
@@ -1466,8 +1466,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1882,7 +1882,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1917,7 +1916,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2101,7 +2099,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -2125,7 +2123,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2222,7 +2220,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2261,7 +2259,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="75">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="75">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2388,7 +2386,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="60">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="60">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2506,7 +2504,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="60">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2603,7 +2601,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="30">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2649,7 +2647,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2680,7 +2678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2719,7 +2717,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="120">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2746,7 +2744,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2760,7 +2758,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2775,7 +2773,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:21">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2790,7 +2788,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2805,499 +2803,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:21">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:21">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:21">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:21">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:21">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:21">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:21">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:21">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:21">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:21">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:21">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:21">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:21">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:21">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:21">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:21">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:21">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:21">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:21">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:21">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:21">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:21">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:21">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3337,20 +3335,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" ht="345">
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3358,7 +3356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="240">
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3366,11 +3364,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" ht="330">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3382,15 +3380,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3404,7 +3402,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
@@ -3433,7 +3431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="16" customFormat="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3447,8 +3445,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+    <row r="4" spans="1:9" s="46" customFormat="1" ht="75">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="47"/>
@@ -3464,7 +3462,7 @@
       </c>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3497,7 +3495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3512,7 +3510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3595,7 +3593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3612,7 +3610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="90">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="90">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3680,7 +3678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="60">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3699,8 +3697,10 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:9" ht="60">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="2" t="s">
         <v>261</v>
@@ -3715,9 +3715,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>17</v>
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="90">
+      <c r="A20" s="16">
+        <v>18</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>142</v>
@@ -3732,9 +3732,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>18</v>
+    <row r="21" spans="1:9" s="43" customFormat="1" ht="105">
+      <c r="A21" s="16">
+        <v>19</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>264</v>
@@ -3749,7 +3749,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="90">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
       <c r="C22" s="17" t="s">
         <v>301</v>
       </c>
@@ -3766,9 +3769,9 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60">
       <c r="A23" s="16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>175</v>
@@ -3783,8 +3786,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:9" ht="90">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
       <c r="C24" s="17" t="s">
         <v>262</v>
       </c>
@@ -3801,9 +3806,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="87" customHeight="1">
       <c r="A25" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>265</v>
@@ -3818,8 +3823,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:9" ht="87" customHeight="1">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>266</v>
       </c>
@@ -3833,9 +3840,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>21</v>
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="60">
+      <c r="A27" s="16">
+        <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>148</v>
@@ -3850,9 +3857,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="60">
       <c r="A28" s="16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>302</v>
@@ -3868,8 +3875,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:9" ht="60">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
       <c r="C29" s="17" t="s">
         <v>303</v>
       </c>
@@ -3884,9 +3893,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="16">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>268</v>
@@ -3901,9 +3910,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="90">
       <c r="A31" s="16">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>270</v>
@@ -3920,8 +3929,10 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:9" ht="90">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
       <c r="C32" s="17" t="s">
         <v>271</v>
       </c>
@@ -3937,9 +3948,9 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="75">
       <c r="A33" s="16">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>79</v>
@@ -3954,9 +3965,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="120">
       <c r="A34" s="16">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>179</v>
@@ -3971,9 +3982,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="135">
       <c r="A35" s="16">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>103</v>
@@ -3988,9 +3999,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="120">
       <c r="A36" s="16">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>185</v>
@@ -4005,9 +4016,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="90">
       <c r="A37" s="16">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>182</v>
@@ -4022,8 +4033,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:8" ht="180">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>307</v>
       </c>
@@ -4037,8 +4050,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:8" ht="105">
+      <c r="A39" s="16">
+        <v>37</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
         <v>217</v>
@@ -4053,8 +4068,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:8" ht="120">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>308</v>
       </c>
@@ -4068,8 +4085,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:8" ht="30">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
         <v>221</v>
@@ -4081,8 +4100,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:8" ht="180">
+      <c r="A42" s="16">
+        <v>40</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>309</v>
@@ -4094,9 +4115,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="16">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>88</v>
@@ -4105,9 +4126,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="75">
       <c r="A44" s="16">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>310</v>
@@ -4122,9 +4143,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75">
       <c r="A45" s="16">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>161</v>
@@ -4139,9 +4160,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="75">
       <c r="A46" s="16">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>162</v>
@@ -4156,9 +4177,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="75">
       <c r="A47" s="16">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>80</v>
@@ -4173,9 +4194,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="90">
       <c r="A48" s="16">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
@@ -4191,9 +4212,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="75">
       <c r="A49" s="16">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -4208,9 +4229,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="16">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>195</v>
@@ -4225,9 +4246,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="75">
       <c r="A51" s="16">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>195</v>
@@ -4242,9 +4263,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
-        <v>39</v>
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="60">
+      <c r="A52" s="16">
+        <v>50</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>197</v>
@@ -4256,9 +4277,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
-        <v>40</v>
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="75">
+      <c r="A53" s="16">
+        <v>51</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>197</v>
@@ -4270,9 +4291,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="16">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>14</v>
@@ -4282,9 +4303,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="16">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>290</v>
@@ -4299,9 +4320,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="60">
       <c r="A56" s="16">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>202</v>
@@ -4316,9 +4337,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="75">
       <c r="A57" s="16">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>202</v>
@@ -4333,9 +4354,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="16">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>205</v>
@@ -4350,9 +4371,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>291</v>
@@ -4367,9 +4388,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="16">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>292</v>
@@ -4379,9 +4400,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="16">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>15</v>
@@ -4399,9 +4420,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="16">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>167</v>
@@ -4417,9 +4438,9 @@
       </c>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="16">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>70</v>
@@ -4437,9 +4458,9 @@
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="16">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>70</v>
@@ -4455,9 +4476,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="16">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>238</v>
@@ -4474,9 +4495,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="30">
       <c r="A66" s="16">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>238</v>
@@ -4492,9 +4513,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="16">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>238</v>
@@ -4510,9 +4531,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30">
       <c r="A68" s="16">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>296</v>
@@ -4525,18 +4546,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="16">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="105">
       <c r="A70" s="16">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
@@ -4551,9 +4572,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="60">
       <c r="A71" s="16">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>42</v>
@@ -4568,9 +4589,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="16">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>64</v>
@@ -4583,9 +4604,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="48">
-        <v>61</v>
+    <row r="73" spans="1:8" s="48" customFormat="1" ht="75">
+      <c r="A73" s="16">
+        <v>71</v>
       </c>
       <c r="D73" s="49" t="s">
         <v>298</v>
@@ -4598,9 +4619,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="16">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>319</v>
@@ -4613,9 +4634,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="45">
       <c r="A75" s="16">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>320</v>
@@ -4627,8 +4648,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+    <row r="76" spans="1:8" ht="30">
+      <c r="A76" s="16">
+        <v>74</v>
+      </c>
       <c r="D76" s="2" t="s">
         <v>321</v>
       </c>
@@ -4639,9 +4662,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="60">
       <c r="A77" s="16">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>299</v>
@@ -4652,9 +4675,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="120">
       <c r="A78" s="16">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>173</v>
@@ -4670,9 +4693,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="60">
       <c r="A79" s="16">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>87</v>
@@ -4682,9 +4705,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="60">
       <c r="A80" s="16">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>89</v>
@@ -4697,17 +4720,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="41">
-        <v>69</v>
+    <row r="81" spans="1:8" s="41" customFormat="1" ht="30">
+      <c r="A81" s="16">
+        <v>79</v>
       </c>
       <c r="D81" s="42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="45">
       <c r="A82" s="16">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>92</v>
@@ -4719,9 +4742,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="16">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D83" s="34" t="s">
         <v>93</v>
@@ -4731,9 +4754,9 @@
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30">
       <c r="A84" s="16">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>94</v>
@@ -4742,9 +4765,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="60">
       <c r="A85" s="16">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>98</v>
@@ -4756,9 +4779,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="45">
       <c r="A86" s="16">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>99</v>
@@ -4770,9 +4793,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="30">
       <c r="A87" s="16">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>95</v>
@@ -4780,9 +4803,9 @@
       <c r="E87" s="2"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" s="16">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>96</v>
@@ -4797,9 +4820,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="45">
       <c r="A89" s="16">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>97</v>
@@ -4812,9 +4835,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="45">
       <c r="A90" s="16">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="31" t="s">
@@ -4828,9 +4851,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" s="16">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="31" t="s">
@@ -4844,9 +4867,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="60">
       <c r="A92" s="16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>102</v>
@@ -4861,9 +4884,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="60">
       <c r="A93" s="16">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>276</v>
@@ -4872,9 +4895,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="60">
       <c r="A94" s="16">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>277</v>
@@ -4883,8 +4906,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+    <row r="95" spans="1:8" ht="60">
+      <c r="A95" s="16">
+        <v>93</v>
+      </c>
       <c r="D95" s="31" t="s">
         <v>224</v>
       </c>
@@ -4892,9 +4917,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="90">
       <c r="A96" s="16">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>225</v>
@@ -4906,9 +4931,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="16">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>190</v>
@@ -4917,9 +4942,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="30">
       <c r="A98" s="16">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D98" s="34" t="s">
         <v>191</v>
@@ -4931,9 +4956,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="30">
       <c r="A99" s="16">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>278</v>
@@ -4946,9 +4971,9 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="16">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>192</v>
@@ -4958,82 +4983,82 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7">
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7">
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:7">
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:7">
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:7">
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7">
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7">
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7">
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7">
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7">
       <c r="G126" s="16"/>
     </row>
   </sheetData>
@@ -5058,15 +5083,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -5079,12 +5104,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30">
       <c r="D1" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
         <v>230</v>
       </c>
@@ -5107,7 +5132,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -5132,7 +5157,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5160,7 +5185,7 @@
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="36" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5188,7 +5213,7 @@
       <c r="J5" s="28"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5217,7 +5242,7 @@
       <c r="N6" s="3"/>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5245,7 +5270,7 @@
       <c r="J7" s="28"/>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5274,7 +5299,7 @@
       <c r="N8" s="3"/>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5300,7 +5325,7 @@
       <c r="J9" s="28"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5327,7 +5352,7 @@
       <c r="N10" s="15"/>
       <c r="R10" s="51"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5353,7 +5378,7 @@
       <c r="J11" s="28"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5380,7 +5405,7 @@
       <c r="N12" s="15"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5406,7 +5431,7 @@
       <c r="J13" s="28"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5430,7 +5455,7 @@
       <c r="N14" s="15"/>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5458,7 +5483,7 @@
       <c r="J15" s="28"/>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5487,7 +5512,7 @@
       <c r="N16" s="3"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5513,7 +5538,7 @@
       <c r="J17" s="28"/>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5540,7 +5565,7 @@
       <c r="N18" s="15"/>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5570,7 +5595,7 @@
       </c>
       <c r="R19" s="50"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5601,7 +5626,7 @@
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5628,7 +5653,7 @@
       <c r="N21" s="15"/>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -5656,7 +5681,7 @@
       </c>
       <c r="R22" s="50"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5685,7 +5710,7 @@
       <c r="N23" s="3"/>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -5713,7 +5738,7 @@
       </c>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -5740,7 +5765,7 @@
       <c r="N25" s="15"/>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5766,7 +5791,7 @@
       <c r="J26" s="28"/>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -5793,7 +5818,7 @@
       <c r="N27" s="15"/>
       <c r="R27" s="50"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5819,7 +5844,7 @@
       <c r="J28" s="28"/>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5846,7 +5871,7 @@
       <c r="N29" s="3"/>
       <c r="R29" s="50"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5877,7 +5902,7 @@
       <c r="J30" s="28"/>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5909,7 +5934,7 @@
       <c r="N31" s="3"/>
       <c r="R31" s="50"/>
     </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -5938,7 +5963,7 @@
       <c r="J32" s="28"/>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -5968,7 +5993,7 @@
       <c r="N33" s="15"/>
       <c r="R33" s="50"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5999,7 +6024,7 @@
       <c r="J34" s="28"/>
       <c r="R34" s="50"/>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -6029,7 +6054,7 @@
       <c r="N35" s="15"/>
       <c r="R35" s="51"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6058,7 +6083,7 @@
       <c r="J36" s="28"/>
       <c r="R36" s="51"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6090,7 +6115,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="13" customFormat="1">
       <c r="A38" s="13">
         <v>36</v>
       </c>
@@ -6118,11 +6143,11 @@
       <c r="I38" s="38"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="13" customFormat="1">
       <c r="I39" s="38"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="13" customFormat="1">
       <c r="A40" s="13">
         <v>37</v>
       </c>
@@ -6150,7 +6175,7 @@
       <c r="I40" s="38"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="13" customFormat="1">
       <c r="A41" s="13">
         <v>38</v>
       </c>
@@ -6178,7 +6203,7 @@
       <c r="I41" s="38"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="13" customFormat="1">
       <c r="A42" s="13">
         <v>39</v>
       </c>
@@ -6206,7 +6231,7 @@
       <c r="I42" s="38"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="13" customFormat="1">
       <c r="A43" s="13">
         <v>40</v>
       </c>
@@ -6234,19 +6259,19 @@
       <c r="I43" s="38"/>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="13" customFormat="1">
       <c r="I44" s="38"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="13" customFormat="1">
       <c r="I45" s="38"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="13" customFormat="1">
       <c r="I46" s="38"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="13" customFormat="1">
       <c r="A47" s="13">
         <v>41</v>
       </c>
@@ -6274,7 +6299,7 @@
       <c r="I47" s="38"/>
       <c r="J47" s="28"/>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="13" customFormat="1">
       <c r="A48" s="13">
         <v>42</v>
       </c>
@@ -6302,7 +6327,7 @@
       <c r="I48" s="38"/>
       <c r="J48" s="28"/>
     </row>
-    <row r="49" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="13" customFormat="1">
       <c r="A49" s="13">
         <v>43</v>
       </c>
@@ -6330,7 +6355,7 @@
       <c r="I49" s="38"/>
       <c r="J49" s="28"/>
     </row>
-    <row r="50" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="13" customFormat="1">
       <c r="A50" s="13">
         <v>44</v>
       </c>
@@ -6358,7 +6383,7 @@
       <c r="I50" s="38"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="13" customFormat="1">
       <c r="A51" s="13">
         <v>45</v>
       </c>
@@ -6386,7 +6411,7 @@
       <c r="I51" s="38"/>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="28" customFormat="1">
       <c r="A52" s="28">
         <v>46</v>
       </c>
@@ -6407,16 +6432,21 @@
       </c>
       <c r="I52" s="39"/>
     </row>
-    <row r="53" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="28" customFormat="1">
       <c r="I53" s="39"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="I54" s="39"/>
       <c r="J54" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6427,11 +6457,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">
